--- a/ficheiros/cassini_atr_sem_outliers.xlsx
+++ b/ficheiros/cassini_atr_sem_outliers.xlsx
@@ -697,10 +697,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -834,36 +834,36 @@
         <v>-0.02183412571282744</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4772142662668321</v>
+        <v>0.4920499924194761</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.2479469349700623</v>
+        <v>-0.2579335485694587</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5377835424124089</v>
+        <v>0.555556397243016</v>
       </c>
       <c r="AW2" t="n">
-        <v>332.544897095582</v>
+        <v>332.3363856060983</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.155479232239435</v>
+        <v>0.1704208184354696</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1292294362763487</v>
+        <v>0.1508178224984404</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2021732891805123</v>
+        <v>0.2275725619212174</v>
       </c>
       <c r="BA2" t="n">
-        <v>39.73229078577415</v>
+        <v>41.50796095175097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -997,36 +997,36 @@
         <v>-0.1091822448219915</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9986317644925076</v>
+        <v>1.013028955301271</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.4778145575807387</v>
+        <v>0.4534631657272413</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.107055623033231</v>
+        <v>1.109890313026543</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.56967957479999</v>
+        <v>24.11476911612464</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.09149390568975239</v>
+        <v>0.1059650681593205</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.2580441242552057</v>
+        <v>-0.425235559088817</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2737844130716746</v>
+        <v>0.4382395194224138</v>
       </c>
       <c r="BA3" t="n">
-        <v>289.5228218915254</v>
+        <v>283.9926340952258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
         <v>0.2774902386644209</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.402007684042152</v>
+        <v>0.416906662280716</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.2614510095154348</v>
+        <v>-0.2711703410416402</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.4795485464534062</v>
+        <v>0.4973374296337312</v>
       </c>
       <c r="AW4" t="n">
-        <v>326.9615052488915</v>
+        <v>326.9586481032794</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1647081471467919</v>
+        <v>0.1797175848452892</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1364353449454475</v>
+        <v>0.1615363131967103</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2138770139283614</v>
+        <v>0.2416451753787139</v>
       </c>
       <c r="BA4" t="n">
-        <v>39.63651780238247</v>
+        <v>41.95028783096898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
@@ -1323,36 +1323,36 @@
         <v>0.120414662632268</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.391025031759939</v>
+        <v>1.405092202350771</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1.56682760835178</v>
+        <v>-1.550710014699616</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.095208675353388</v>
+        <v>2.092602601259165</v>
       </c>
       <c r="AW5" t="n">
-        <v>311.5985764358582</v>
+        <v>312.1795995065543</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04334168328171831</v>
+        <v>0.05745882789868953</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.8329972987756669</v>
+        <v>1.19764337002284</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.8341240922532153</v>
+        <v>1.199020916691263</v>
       </c>
       <c r="BA5" t="n">
-        <v>87.02152909850622</v>
+        <v>87.25325084531144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>19</v>
@@ -1486,36 +1486,36 @@
         <v>0.05804116016902054</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9471228593588978</v>
+        <v>0.9615633714514744</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1079294604900366</v>
+        <v>-0.1206873977174416</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.9532525788907392</v>
+        <v>0.9691076128505719</v>
       </c>
       <c r="AW6" t="n">
-        <v>353.498898696126</v>
+        <v>352.8461215380192</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.09781477932058742</v>
+        <v>0.1123324132092805</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.05451471741198289</v>
+        <v>0.03968277264612192</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.1119802905338416</v>
+        <v>0.1191356097155857</v>
       </c>
       <c r="BA6" t="n">
-        <v>29.13205951624406</v>
+        <v>19.45637873450456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>27</v>
@@ -1649,36 +1649,36 @@
         <v>0.09059886411072084</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.49621264652339</v>
+        <v>1.510191349644355</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.1391344584916852</v>
+        <v>-0.1512747646084371</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.502667854569432</v>
+        <v>1.517748980216418</v>
       </c>
       <c r="AW7" t="n">
-        <v>354.6872809728166</v>
+        <v>354.2798046079868</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03043367021632518</v>
+        <v>0.04445591439385291</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.07116601512688968</v>
+        <v>0.06445088835049023</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07740032294426638</v>
+        <v>0.07829588324912706</v>
       </c>
       <c r="BA7" t="n">
-        <v>66.84635024517119</v>
+        <v>55.40347881889296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -1812,36 +1812,36 @@
         <v>-0.1203043449275195</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.404081979320403</v>
+        <v>1.418138168436683</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1309510827214319</v>
+        <v>0.1134650549743832</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.410175304959712</v>
+        <v>1.422670089471656</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.328252250330377</v>
+        <v>4.574483352238501</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0417394105228612</v>
+        <v>0.05584477514021877</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.07295431953852972</v>
+        <v>-0.1499221404345142</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.08405064622075095</v>
+        <v>0.1599852715187489</v>
       </c>
       <c r="BA8" t="n">
-        <v>299.7752013362494</v>
+        <v>290.4299521634871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>31</v>
@@ -1975,36 +1975,36 @@
         <v>-0.0338222270114087</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2743777865625556</v>
+        <v>0.2893841072304994</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.08058989568500577</v>
+        <v>-0.0938889566700347</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2859683567206124</v>
+        <v>0.3042339522508637</v>
       </c>
       <c r="AW9" t="n">
-        <v>343.6314983046692</v>
+        <v>342.0246527018432</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1803701467834055</v>
+        <v>0.1954947323858093</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.03992605334796002</v>
+        <v>0.01798273906937549</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1847362432946264</v>
+        <v>0.1963200684979415</v>
       </c>
       <c r="BA9" t="n">
-        <v>12.48151558722626</v>
+        <v>5.255608086041797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
@@ -2138,36 +2138,36 @@
         <v>0.08281308899041029</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5999965940153823</v>
+        <v>0.6147290547607378</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.4059283872168888</v>
+        <v>-0.4127881215962118</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.7244127058373313</v>
+        <v>0.7404632631656746</v>
       </c>
       <c r="AW10" t="n">
-        <v>325.9196380183708</v>
+        <v>326.1187960820466</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1404120982014422</v>
+        <v>0.1552429099789728</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2135299125864661</v>
+        <v>0.2762112895381374</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2555593490571521</v>
+        <v>0.3168486035428597</v>
       </c>
       <c r="BA10" t="n">
-        <v>56.67204907378304</v>
+        <v>60.66209556073066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>34</v>
@@ -2301,36 +2301,36 @@
         <v>0.07082145210884742</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4530888281553418</v>
+        <v>0.4679448448761667</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01032414838291243</v>
+        <v>-0.004774346846869868</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.4532064366698836</v>
+        <v>0.4679692000911961</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.305324141137544</v>
+        <v>359.4154430037472</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1584397658635861</v>
+        <v>0.1734031180696561</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.008586586010680001</v>
+        <v>-0.05417780272932207</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.1586722687372522</v>
+        <v>0.1816696883490926</v>
       </c>
       <c r="BA11" t="n">
-        <v>356.897910509784</v>
+        <v>342.6491878351194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>35</v>
@@ -2464,36 +2464,36 @@
         <v>0.01330919210399416</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2844555968453981</v>
+        <v>0.2994534416259522</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1619166063385197</v>
+        <v>0.1438176873250602</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.3273102106333605</v>
+        <v>0.332198571473684</v>
       </c>
       <c r="AW12" t="n">
-        <v>29.64921362812633</v>
+        <v>25.65345049856011</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1791334564459164</v>
+        <v>0.1942489498312696</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0.08947783133682773</v>
+        <v>-0.1745001798804344</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.200237552719271</v>
+        <v>0.2611186842967294</v>
       </c>
       <c r="BA12" t="n">
-        <v>333.4577002507615</v>
+        <v>318.0656104771509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>41</v>
@@ -2627,36 +2627,36 @@
         <v>-0.06695066250189884</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.455734543711992</v>
+        <v>0.4705883352681737</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.2137583626582617</v>
+        <v>-0.224421660354464</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.5033752198298189</v>
+        <v>0.5213621226429145</v>
       </c>
       <c r="AW13" t="n">
-        <v>334.8714789339106</v>
+        <v>334.5037158403857</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1581150990190212</v>
+        <v>0.1730760642561545</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1109860735951098</v>
+        <v>0.1236815760951846</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1931794323157981</v>
+        <v>0.2127262472846016</v>
       </c>
       <c r="BA13" t="n">
-        <v>35.06625132239277</v>
+        <v>35.54991103952215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>43</v>
@@ -2790,36 +2790,36 @@
         <v>0.09768888789136138</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.038725920756876</v>
+        <v>1.053089390594124</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.6764676271365129</v>
+        <v>-0.6779726599639256</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.239580569796059</v>
+        <v>1.252455265564589</v>
       </c>
       <c r="AW14" t="n">
-        <v>326.9259152309354</v>
+        <v>327.2268072862472</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.08657378373366256</v>
+        <v>0.1010087731893529</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.3578923454002179</v>
+        <v>0.4909444292918109</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3682145446964742</v>
+        <v>0.5012276976723055</v>
       </c>
       <c r="BA14" t="n">
-        <v>76.4014348118621</v>
+        <v>78.37398181747972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>45</v>
@@ -2953,36 +2953,36 @@
         <v>0.2846991774152434</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.224694379348152</v>
+        <v>2.238060396879735</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0008267893616082395</v>
+        <v>-0.01408372750649338</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.224694532982878</v>
+        <v>2.238104709673333</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.02129350405398163</v>
+        <v>359.6394523151313</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.05896137639965315</v>
+        <v>-0.04559636964239666</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.003518700649471619</v>
+        <v>-0.04663953315105897</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.05906627769888811</v>
+        <v>0.06522480338885508</v>
       </c>
       <c r="BA15" t="n">
-        <v>183.4152504608802</v>
+        <v>225.6479723884852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>51</v>
@@ -3116,36 +3116,36 @@
         <v>-0.1548392532045335</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5177022042039058</v>
+        <v>0.5325038781971062</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.3048097503163005</v>
+        <v>0.2838825904160755</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.6007699693938338</v>
+        <v>0.6034481795782466</v>
       </c>
       <c r="AW16" t="n">
-        <v>30.48848305235858</v>
+        <v>28.06247742686321</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.1505107876838868</v>
+        <v>0.1654158455955693</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1657270360849698</v>
+        <v>-0.2879177139310906</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.2238726148923376</v>
+        <v>0.3320527246829975</v>
       </c>
       <c r="BA16" t="n">
-        <v>312.2452538416333</v>
+        <v>299.8784326537085</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>54</v>
@@ -3279,36 +3279,36 @@
         <v>-0.2796366484375752</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.025197831384352</v>
+        <v>1.039572678947406</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1512609642485652</v>
+        <v>0.1333729491441011</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.036296517788506</v>
+        <v>1.048093363387672</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.393049229734999</v>
+        <v>7.310878202937797</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.08823387227890649</v>
+        <v>0.1026810667991301</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.08379187459445107</v>
+        <v>-0.1660425547213369</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1216811179492636</v>
+        <v>0.1952268717605125</v>
       </c>
       <c r="BA17" t="n">
-        <v>316.4791458950332</v>
+        <v>301.7327342166009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>55</v>
@@ -3442,36 +3442,36 @@
         <v>-0.02608056484188741</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.173747385913576</v>
+        <v>1.187997296683752</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0.06938399360355529</v>
+        <v>-0.08290484962757348</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.175796353331363</v>
+        <v>1.190886556738161</v>
       </c>
       <c r="AW18" t="n">
-        <v>356.6169985050601</v>
+        <v>356.0080637733732</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.07000473384817359</v>
+        <v>0.08431790671541399</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.03394647239389403</v>
+        <v>0.009088360056419822</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.07780119375140095</v>
+        <v>0.08480629505752732</v>
       </c>
       <c r="BA18" t="n">
-        <v>25.86952645452934</v>
+        <v>6.151979365969553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>58</v>
@@ -3605,36 +3605,36 @@
         <v>-0.04183778951392843</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.581631506077358</v>
+        <v>0.5963794126797891</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.4789146390334212</v>
+        <v>-0.4843297785510663</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.7534284573483588</v>
+        <v>0.7682732184969193</v>
       </c>
       <c r="AW19" t="n">
-        <v>320.5320023278145</v>
+        <v>320.9193664809313</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1426657551132774</v>
+        <v>0.1575131359034209</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.2524761034507638</v>
+        <v>0.3341421354149592</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2899960353103512</v>
+        <v>0.3694067604170212</v>
       </c>
       <c r="BA19" t="n">
-        <v>60.53066929542809</v>
+        <v>64.76101588263677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>59</v>
@@ -3768,36 +3768,36 @@
         <v>0.2560988767346447</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.732701596821878</v>
+        <v>1.746481402200639</v>
       </c>
       <c r="AU20" t="n">
-        <v>-2.514712326785745</v>
+        <v>-2.479833536885901</v>
       </c>
       <c r="AV20" t="n">
-        <v>3.053855417356437</v>
+        <v>3.033112536470869</v>
       </c>
       <c r="AW20" t="n">
-        <v>304.5678429510957</v>
+        <v>305.1560272291144</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.001413119962963366</v>
+        <v>0.01522200341967503</v>
       </c>
       <c r="AY20" t="n">
-        <v>1.338798024839507</v>
+        <v>1.95000100130148</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1.338798770623201</v>
+        <v>1.950060413029525</v>
       </c>
       <c r="BA20" t="n">
-        <v>89.93952352912612</v>
+        <v>89.55274954397358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>60</v>
@@ -3931,36 +3931,36 @@
         <v>0.1031935699220838</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4332685025519051</v>
+        <v>0.4481411890495095</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.4370160596898524</v>
+        <v>0.4134721801958812</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.6153898209512526</v>
+        <v>0.6097456593684316</v>
       </c>
       <c r="AW21" t="n">
-        <v>45.24672146290771</v>
+        <v>42.695814638655</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.1608720010884731</v>
+        <v>0.1758532352249767</v>
       </c>
       <c r="AY21" t="n">
-        <v>-0.2362736394544615</v>
+        <v>-0.3928528646155626</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2858409233039708</v>
+        <v>0.4304157682703372</v>
       </c>
       <c r="BA21" t="n">
-        <v>304.2498353236521</v>
+        <v>294.1147829704124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>61</v>
@@ -4094,36 +4094,36 @@
         <v>-0.04953435665005733</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4012321363657378</v>
+        <v>0.4161317668744465</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.1061277740040716</v>
+        <v>-0.1189213714685103</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.4150305189593572</v>
+        <v>0.4327908732794629</v>
       </c>
       <c r="AW22" t="n">
-        <v>345.1842942547149</v>
+        <v>344.0512205314266</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.1648033178526065</v>
+        <v>0.1798134552514959</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.05355331955946124</v>
+        <v>0.03825273315869687</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.1732861552780978</v>
+        <v>0.1838372929619891</v>
       </c>
       <c r="BA22" t="n">
-        <v>18.00172185107737</v>
+        <v>12.00981735991396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>62</v>
@@ -4257,36 +4257,36 @@
         <v>0.3766135174407891</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9876168820725101</v>
+        <v>1.002023336888075</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.732982166294185</v>
+        <v>-0.7333686238989314</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.229898354279712</v>
+        <v>1.241724730440578</v>
       </c>
       <c r="AW23" t="n">
-        <v>323.4182085164024</v>
+        <v>323.8000594400416</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.09284558807660788</v>
+        <v>0.1073266881912536</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.3880490663423388</v>
+        <v>0.5358013026927426</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.399001730716111</v>
+        <v>0.5464449230849735</v>
       </c>
       <c r="BA23" t="n">
-        <v>76.54422790366074</v>
+        <v>78.6729561449628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
         <v>67</v>
@@ -4420,36 +4420,36 @@
         <v>-0.112803314966186</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.709181875674777</v>
+        <v>1.722981462186769</v>
       </c>
       <c r="AU24" t="n">
-        <v>-0.3851305712102457</v>
+        <v>-0.3924019504869234</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.752035456552144</v>
+        <v>1.767100565838062</v>
       </c>
       <c r="AW24" t="n">
-        <v>347.3016014948549</v>
+        <v>347.1699577643014</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.004299323519759507</v>
+        <v>0.01812942650766283</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.2024319908327723</v>
+        <v>0.2597035905719819</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.2024776409761017</v>
+        <v>0.26033561235735</v>
       </c>
       <c r="BA24" t="n">
-        <v>88.78331451566795</v>
+        <v>86.00676595488264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
         <v>70</v>
@@ -4583,36 +4583,36 @@
         <v>-0.3495908807856426</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.578967936731166</v>
+        <v>1.592877038966522</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.466837999406875</v>
+        <v>1.422911164965472</v>
       </c>
       <c r="AV25" t="n">
-        <v>2.155169010015001</v>
+        <v>2.135868311635844</v>
       </c>
       <c r="AW25" t="n">
-        <v>42.89163452006895</v>
+        <v>41.77429727611495</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.0202784217145448</v>
+        <v>0.03422600393282335</v>
       </c>
       <c r="AY25" t="n">
-        <v>-0.7857968828356976</v>
+        <v>-1.210245929548964</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.7860584936641369</v>
+        <v>1.210729792040754</v>
       </c>
       <c r="BA25" t="n">
-        <v>271.4782575356022</v>
+        <v>271.6199046766462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
         <v>71</v>
@@ -4746,36 +4746,36 @@
         <v>-0.03652400174250946</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6599293663188217</v>
+        <v>0.6746114209328118</v>
       </c>
       <c r="AU26" t="n">
-        <v>-0.5737068368537273</v>
+        <v>-0.5772457829994676</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.8744405658377651</v>
+        <v>0.8878700711498591</v>
       </c>
       <c r="AW26" t="n">
-        <v>318.9980718778774</v>
+        <v>319.4473378333885</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.1330574965244505</v>
+        <v>0.1478342368560087</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.3030581642755351</v>
+        <v>0.4093808559353282</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.3309811902743287</v>
+        <v>0.4352558406192161</v>
       </c>
       <c r="BA26" t="n">
-        <v>66.29615403975916</v>
+        <v>70.14450567983076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>74</v>
@@ -4909,36 +4909,36 @@
         <v>-0.03820122701265119</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5576133632144499</v>
+        <v>0.5723814701449781</v>
       </c>
       <c r="AU27" t="n">
-        <v>-0.1519563953529688</v>
+        <v>-0.1638429207419046</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.5779475831976441</v>
+        <v>0.5953696751116607</v>
       </c>
       <c r="AW27" t="n">
-        <v>344.7563562558088</v>
+        <v>344.0263484606432</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.1456131220877838</v>
+        <v>0.1604821720860127</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.07800792833411663</v>
+        <v>0.07462795087482044</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.1651920646009744</v>
+        <v>0.1769854757013106</v>
       </c>
       <c r="BA27" t="n">
-        <v>28.17886485742217</v>
+        <v>24.93952577316842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
         <v>75</v>
@@ -5072,36 +5072,36 @@
         <v>-0.1315460396880565</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.8757056432353995</v>
+        <v>0.890206220388198</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.2825130204648579</v>
+        <v>-0.2918154779629159</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.9201488903033584</v>
+        <v>0.9368155570850465</v>
       </c>
       <c r="AW28" t="n">
-        <v>342.1196838561174</v>
+        <v>341.8505145615113</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.1065786852318415</v>
+        <v>0.1211607518506539</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.1476742437518164</v>
+        <v>0.1782537096898753</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.1821172655555173</v>
+        <v>0.2155326258532988</v>
       </c>
       <c r="BA28" t="n">
-        <v>54.18145907305959</v>
+        <v>55.79567835558145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>78</v>
@@ -5235,36 +5235,36 @@
         <v>-0.1760318508669018</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6467552954935111</v>
+        <v>0.6614484300879379</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.2294308917156563</v>
+        <v>0.2099956828213187</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.6862440865481757</v>
+        <v>0.6939828617980343</v>
       </c>
       <c r="AW29" t="n">
-        <v>19.53170385497883</v>
+        <v>17.61352639810065</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.1346741419700188</v>
+        <v>0.1494627679699932</v>
       </c>
       <c r="AY29" t="n">
-        <v>-0.1255041264118823</v>
+        <v>-0.2280878017040384</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.1840880502959671</v>
+        <v>0.2726961024573559</v>
       </c>
       <c r="BA29" t="n">
-        <v>317.0185613486441</v>
+        <v>303.2362686205714</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
         <v>80</v>
@@ -5398,36 +5398,36 @@
         <v>-0.06653310914812037</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.483431863402445</v>
+        <v>1.497421315731368</v>
       </c>
       <c r="AU30" t="n">
-        <v>-0.5319459343720699</v>
+        <v>-0.5363114414610366</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.575924037018481</v>
+        <v>1.590566112756297</v>
       </c>
       <c r="AW30" t="n">
-        <v>340.2726020871074</v>
+        <v>340.294675925466</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.03200205367936029</v>
+        <v>0.04603582870048914</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.2807741308002397</v>
+        <v>0.3762342790783169</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.2825920097354607</v>
+        <v>0.3790402752712719</v>
       </c>
       <c r="BA30" t="n">
-        <v>83.49760634128403</v>
+        <v>83.02399515212915</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
         <v>88</v>
@@ -5561,36 +5561,36 @@
         <v>-0.02675315665585455</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9860123547103417</v>
+        <v>1.000420159004896</v>
       </c>
       <c r="AU31" t="n">
-        <v>-1.118649902277679</v>
+        <v>-1.111402954743097</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.491173352600996</v>
+        <v>1.495345118143323</v>
       </c>
       <c r="AW31" t="n">
-        <v>311.393941744508</v>
+        <v>311.9916981081652</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.09304248635404508</v>
+        <v>0.107525034075922</v>
       </c>
       <c r="AY31" t="n">
-        <v>0.5938452112597638</v>
+        <v>0.8419145448014682</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.6010898761442386</v>
+        <v>0.8487530463575913</v>
       </c>
       <c r="BA31" t="n">
-        <v>81.09540365027856</v>
+        <v>82.721875830136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>89</v>
@@ -5724,36 +5724,36 @@
         <v>0.2471283124901706</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.152459358905137</v>
+        <v>1.166727173854357</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.018168222070138</v>
+        <v>0.9831217731643574</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.537800085304168</v>
+        <v>1.525706629427822</v>
       </c>
       <c r="AW32" t="n">
-        <v>41.45976995179162</v>
+        <v>40.11856431695472</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.07261707686383494</v>
+        <v>0.08694945582413609</v>
       </c>
       <c r="AY32" t="n">
-        <v>-0.5463822211933466</v>
+        <v>-0.8541265361895301</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.551186693860096</v>
+        <v>0.8585408247085504</v>
       </c>
       <c r="BA32" t="n">
-        <v>277.5705442258443</v>
+        <v>275.812644592001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
         <v>90</v>
@@ -5887,36 +5887,36 @@
         <v>0.01635271867748476</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.7765616562681757</v>
+        <v>0.7911456179306355</v>
       </c>
       <c r="AU33" t="n">
-        <v>-0.6210854601798056</v>
+        <v>-0.6236866555285566</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.9943817953043655</v>
+        <v>1.007420683257617</v>
       </c>
       <c r="AW33" t="n">
-        <v>321.3475645604416</v>
+        <v>321.7501009470669</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.1187450594005688</v>
+        <v>0.1334165738878639</v>
       </c>
       <c r="AY33" t="n">
-        <v>0.3283398695422132</v>
+        <v>0.446986345427492</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.3491524868349675</v>
+        <v>0.466472695006472</v>
       </c>
       <c r="BA33" t="n">
-        <v>70.11733016666979</v>
+        <v>73.38067732095017</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C34" t="n">
         <v>93</v>
@@ -6050,36 +6050,36 @@
         <v>-0.006764492946356662</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.4659051196182822</v>
+        <v>0.4807503572670525</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.08254590015707065</v>
+        <v>0.06601794158429362</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.4731610784069912</v>
+        <v>0.4852620679832968</v>
       </c>
       <c r="AW34" t="n">
-        <v>10.04701589093631</v>
+        <v>7.81910675227117</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.1568670250230836</v>
+        <v>0.1718188143498678</v>
       </c>
       <c r="AY34" t="n">
-        <v>-0.04712483203845004</v>
+        <v>-0.1115018475576542</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.1637925924278777</v>
+        <v>0.2048276518768028</v>
       </c>
       <c r="BA34" t="n">
-        <v>343.2790695363438</v>
+        <v>327.0184383104078</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C35" t="n">
         <v>94</v>
@@ -6213,36 +6213,36 @@
         <v>0.3980966128316588</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.027083913254441</v>
+        <v>1.041457174538623</v>
       </c>
       <c r="AU35" t="n">
-        <v>-0.7166626413229977</v>
+        <v>-0.7173721063617696</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.252400377808196</v>
+        <v>1.264616853194632</v>
       </c>
       <c r="AW35" t="n">
-        <v>325.0940349548861</v>
+        <v>325.4403172720687</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.08800242326776331</v>
+        <v>0.1024479161618145</v>
       </c>
       <c r="AY35" t="n">
-        <v>0.3793408052859933</v>
+        <v>0.5228481250413504</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.3894147827908238</v>
+        <v>0.532790519233548</v>
       </c>
       <c r="BA35" t="n">
-        <v>76.93911446115109</v>
+        <v>78.91380378155489</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
         <v>95</v>
@@ -6376,36 +6376,36 @@
         <v>-0.2336477539364173</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.168247018142733</v>
+        <v>1.182501554967233</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.3642413650922633</v>
+        <v>0.3421378931717638</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.223712738939847</v>
+        <v>1.231002951029743</v>
       </c>
       <c r="AW36" t="n">
-        <v>17.31667150957787</v>
+        <v>16.13695345120106</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.07067970703023663</v>
+        <v>0.08499784233834734</v>
       </c>
       <c r="AY36" t="n">
-        <v>-0.1974403376291624</v>
+        <v>-0.3350899365087277</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.2097100567664739</v>
+        <v>0.345702037528849</v>
       </c>
       <c r="BA36" t="n">
-        <v>289.6963554988969</v>
+        <v>284.2332679275621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
         <v>108</v>
@@ -6539,36 +6539,36 @@
         <v>-0.0609687570307764</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4082855852548219</v>
+        <v>0.423179283498801</v>
       </c>
       <c r="AU37" t="n">
-        <v>-0.1195813146312681</v>
+        <v>-0.1321086302251118</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.4254371985802544</v>
+        <v>0.4433208726898767</v>
       </c>
       <c r="AW37" t="n">
-        <v>343.6754073785989</v>
+        <v>342.6626160000718</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.1639377595773179</v>
+        <v>0.1789415333429918</v>
       </c>
       <c r="AY37" t="n">
-        <v>0.06073226282653685</v>
+        <v>0.04893111393828284</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.1748256181549547</v>
+        <v>0.1855109869155524</v>
       </c>
       <c r="BA37" t="n">
-        <v>20.32761587678414</v>
+        <v>15.29352048556937</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>109</v>
@@ -6702,36 +6702,36 @@
         <v>0.2311523603352728</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.290338522130974</v>
+        <v>3.302808285466639</v>
       </c>
       <c r="AU38" t="n">
-        <v>-0.3306964554869318</v>
+        <v>-0.3390452327929196</v>
       </c>
       <c r="AV38" t="n">
-        <v>3.306915138900704</v>
+        <v>3.320164791155205</v>
       </c>
       <c r="AW38" t="n">
-        <v>354.2607434730393</v>
+        <v>354.138910776328</v>
       </c>
       <c r="AX38" t="n">
-        <v>-0.1897310354420582</v>
+        <v>-0.1773274545871562</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.1733854045548721</v>
+        <v>0.2164979965056472</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.2570221086260328</v>
+        <v>0.279850689906813</v>
       </c>
       <c r="BA38" t="n">
-        <v>137.5774207648803</v>
+        <v>129.3199464371342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
         <v>110</v>
@@ -6865,36 +6865,36 @@
         <v>0.07550780827438218</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.725346732845816</v>
+        <v>1.739132723992822</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.4477610597520157</v>
+        <v>-0.4537928126650976</v>
       </c>
       <c r="AV39" t="n">
-        <v>1.782501420805038</v>
+        <v>1.797362108337993</v>
       </c>
       <c r="AW39" t="n">
-        <v>345.4515761315319</v>
+        <v>345.3758559312172</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.002315666146852885</v>
+        <v>0.01613118517396839</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.2358522432770754</v>
+        <v>0.3094148319167729</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.2358636109460983</v>
+        <v>0.3098350421517903</v>
       </c>
       <c r="BA39" t="n">
-        <v>89.43747139290808</v>
+        <v>87.01561552442213</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
         <v>112</v>
@@ -7028,36 +7028,36 @@
         <v>0.2105232727999797</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.818215509885128</v>
+        <v>2.831082349706016</v>
       </c>
       <c r="AU40" t="n">
-        <v>-0.8682097585861862</v>
+        <v>-0.8659196972559263</v>
       </c>
       <c r="AV40" t="n">
-        <v>2.948919606408655</v>
+        <v>2.960547954840917</v>
       </c>
       <c r="AW40" t="n">
-        <v>342.8774654245121</v>
+        <v>342.9931344496904</v>
       </c>
       <c r="AX40" t="n">
-        <v>-0.1317948418678728</v>
+        <v>-0.1189653108530183</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.4602078563671029</v>
+        <v>0.6431345142550212</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.478707793340553</v>
+        <v>0.6540449132990772</v>
       </c>
       <c r="BA40" t="n">
-        <v>105.9807129952329</v>
+        <v>100.4799627075553</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
         <v>113</v>
@@ -7191,36 +7191,36 @@
         <v>0.2109402179372762</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.644403744457616</v>
+        <v>1.658257812263669</v>
       </c>
       <c r="AU41" t="n">
-        <v>-0.9253449107832715</v>
+        <v>-0.9219239906237001</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.886882847104909</v>
+        <v>1.897304091710398</v>
       </c>
       <c r="AW41" t="n">
-        <v>330.632512267651</v>
+        <v>330.9277182947038</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.01224851949671213</v>
+        <v>0.02613706542138763</v>
       </c>
       <c r="AY41" t="n">
-        <v>0.4906957426079518</v>
+        <v>0.6884839823219424</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.490848589733566</v>
+        <v>0.6889799272132118</v>
       </c>
       <c r="BA41" t="n">
-        <v>88.57010626015085</v>
+        <v>87.82591204059577</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
         <v>115</v>
@@ -7354,36 +7354,36 @@
         <v>-0.07642034930724204</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.003229926362868</v>
+        <v>1.017623249912662</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.6499487043362456</v>
+        <v>0.6221903132502439</v>
       </c>
       <c r="AV42" t="n">
-        <v>1.195367559965725</v>
+        <v>1.19276060660354</v>
       </c>
       <c r="AW42" t="n">
-        <v>32.93743354199367</v>
+        <v>31.4422490215782</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.09092964597502377</v>
+        <v>0.1053966599753723</v>
       </c>
       <c r="AY42" t="n">
-        <v>-0.3498966193066706</v>
+        <v>-0.561862341224418</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.3615188027190015</v>
+        <v>0.5716622660453886</v>
       </c>
       <c r="BA42" t="n">
-        <v>284.5675477081328</v>
+        <v>280.6243316421527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>118</v>
@@ -7517,36 +7517,36 @@
         <v>0.1435689008717311</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.8787802485001316</v>
+        <v>0.8932782397729363</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.8386611542884874</v>
+        <v>-0.8369559395680454</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.21474575811832</v>
+        <v>1.224108352405973</v>
       </c>
       <c r="AW43" t="n">
-        <v>316.3381747982848</v>
+        <v>316.8644245074323</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.1062013875336539</v>
+        <v>0.120780680238528</v>
       </c>
       <c r="AY43" t="n">
-        <v>0.4444404268292141</v>
+        <v>0.6196811158568116</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.4569529819513244</v>
+        <v>0.6313419501889802</v>
       </c>
       <c r="BA43" t="n">
-        <v>76.5608780144866</v>
+        <v>78.97088048598408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>121</v>
@@ -7680,36 +7680,36 @@
         <v>0.2252888249702611</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.477951781840314</v>
+        <v>2.491104798614404</v>
       </c>
       <c r="AU44" t="n">
-        <v>-0.4942083624192845</v>
+        <v>-0.4993207978841901</v>
       </c>
       <c r="AV44" t="n">
-        <v>2.526754229958018</v>
+        <v>2.540654320618886</v>
       </c>
       <c r="AW44" t="n">
-        <v>348.7207965752377</v>
+        <v>348.6657460917896</v>
       </c>
       <c r="AX44" t="n">
-        <v>-0.09003965370091044</v>
+        <v>-0.07690313618968231</v>
       </c>
       <c r="AY44" t="n">
-        <v>0.2606369865648723</v>
+        <v>0.3462811110480182</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.2757512973753655</v>
+        <v>0.3547177754560077</v>
       </c>
       <c r="BA44" t="n">
-        <v>109.0579837756435</v>
+        <v>102.5212041604046</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
         <v>124</v>
@@ -7843,36 +7843,36 @@
         <v>-0.2410969357150405</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5013048889718101</v>
+        <v>0.516120353837581</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.0690467781253038</v>
+        <v>0.05278600360211012</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.5060375967025809</v>
+        <v>0.5188126654407271</v>
       </c>
       <c r="AW45" t="n">
-        <v>7.842240199755002</v>
+        <v>5.839598594812128</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.1525229709597338</v>
+        <v>0.1674428225562501</v>
       </c>
       <c r="AY45" t="n">
-        <v>-0.03992156607993493</v>
+        <v>-0.1007872877819245</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.1576609910810484</v>
+        <v>0.1954358621237165</v>
       </c>
       <c r="BA45" t="n">
-        <v>345.3323698070566</v>
+        <v>328.9553976915438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>126</v>
@@ -8006,36 +8006,36 @@
         <v>-0.1550099705633163</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.7562831841005626</v>
+        <v>0.7708842008614716</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.1654779290817395</v>
+        <v>-0.1770968268331349</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.7741751736955058</v>
+        <v>0.7909650669986602</v>
       </c>
       <c r="AW46" t="n">
-        <v>347.6579497152683</v>
+        <v>347.0618160601896</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.1212335157105099</v>
+        <v>0.1359233254688241</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.08522315339735873</v>
+        <v>0.08536029932352143</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.1481909282193758</v>
+        <v>0.1605039909382476</v>
       </c>
       <c r="BA46" t="n">
-        <v>35.10595054755171</v>
+        <v>32.12895728040536</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
         <v>127</v>
@@ -8169,36 +8169,36 @@
         <v>-0.2976416986089311</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.585320530972806</v>
+        <v>1.599224290393412</v>
       </c>
       <c r="AU47" t="n">
-        <v>-0.35375850822544</v>
+        <v>-0.3616508252795774</v>
       </c>
       <c r="AV47" t="n">
-        <v>1.624311013342515</v>
+        <v>1.63960655353951</v>
       </c>
       <c r="AW47" t="n">
-        <v>347.4207446295302</v>
+        <v>347.2573853731335</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.01949886825043573</v>
+        <v>0.03344071914771707</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.1856915455789956</v>
+        <v>0.234802871595767</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.1867124954644548</v>
+        <v>0.2371722374282764</v>
       </c>
       <c r="BA47" t="n">
-        <v>84.00552374480577</v>
+        <v>81.89442213514937</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
         <v>128</v>
@@ -8332,36 +8332,36 @@
         <v>-0.1798512166643514</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.039385503230678</v>
+        <v>1.053748418329683</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.1227554314258166</v>
+        <v>0.1054316177321695</v>
       </c>
       <c r="AV48" t="n">
-        <v>1.046609344631811</v>
+        <v>1.059009704936613</v>
       </c>
       <c r="AW48" t="n">
-        <v>6.735650445634261</v>
+        <v>5.71364964894821</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.08649284360388879</v>
+        <v>0.100927237983184</v>
       </c>
       <c r="AY48" t="n">
-        <v>-0.06858103838390052</v>
+        <v>-0.1434170658451253</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.1103828375269489</v>
+        <v>0.175370357080492</v>
       </c>
       <c r="BA48" t="n">
-        <v>321.5887501846655</v>
+        <v>305.1352932232154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
         <v>134</v>
@@ -8495,36 +8495,36 @@
         <v>-0.1690818120684996</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.825224904468061</v>
+        <v>0.8397679381709561</v>
       </c>
       <c r="AU49" t="n">
-        <v>-0.2103739359411888</v>
+        <v>-0.221104220574294</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.8516180692527066</v>
+        <v>0.8683877396276762</v>
       </c>
       <c r="AW49" t="n">
-        <v>345.6982563555906</v>
+        <v>345.2492487915653</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.1127733882586651</v>
+        <v>0.1274009986832119</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.1091801097922187</v>
+        <v>0.1209952797359607</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.1569653894130185</v>
+        <v>0.1757010876001146</v>
       </c>
       <c r="BA49" t="n">
-        <v>44.07250073218226</v>
+        <v>43.52276638572486</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>135</v>
@@ -8658,36 +8658,36 @@
         <v>-0.4274886017104907</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5152503087647213</v>
+        <v>0.5300540449112121</v>
       </c>
       <c r="AU50" t="n">
-        <v>-0.1926528032562899</v>
+        <v>-0.203733836922022</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.5500890685013177</v>
+        <v>0.567859812659521</v>
       </c>
       <c r="AW50" t="n">
-        <v>339.4991603188953</v>
+        <v>338.9750236539778</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.1508116700495069</v>
+        <v>0.1657189400652967</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.09972393690074703</v>
+        <v>0.1069296142060719</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.18080106032351</v>
+        <v>0.1972224872843479</v>
       </c>
       <c r="BA50" t="n">
-        <v>33.47459688075333</v>
+        <v>32.83200069226947</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>138</v>
@@ -8821,36 +8821,36 @@
         <v>0.2796267985047887</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.7148052866127188</v>
+        <v>0.7294411881331538</v>
       </c>
       <c r="AU51" t="n">
-        <v>-0.4834442801477825</v>
+        <v>-0.4887697658454795</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.8629397254600686</v>
+        <v>0.8780548564581555</v>
       </c>
       <c r="AW51" t="n">
-        <v>325.9283301820016</v>
+        <v>326.175520324785</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.1263234423516087</v>
+        <v>0.1410506735374136</v>
       </c>
       <c r="AY51" t="n">
-        <v>0.2548931650616291</v>
+        <v>0.3377374144537156</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.2844787121784249</v>
+        <v>0.3660079966711642</v>
       </c>
       <c r="BA51" t="n">
-        <v>63.63727529980316</v>
+        <v>67.3329193201819</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C52" t="n">
         <v>139</v>
@@ -8984,36 +8984,36 @@
         <v>0.06016199580254051</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.4156764925688772</v>
+        <v>0.4305639747305583</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.07684593592421228</v>
+        <v>0.06043079502377212</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.4227200543414423</v>
+        <v>0.4347841042666832</v>
       </c>
       <c r="AW52" t="n">
-        <v>10.47399238736099</v>
+        <v>7.989426401478186</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.1630307903643599</v>
+        <v>0.178027896041271</v>
       </c>
       <c r="AY52" t="n">
-        <v>-0.0440832743559073</v>
+        <v>-0.1069776564770222</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.1688856822965347</v>
+        <v>0.2076972574546842</v>
       </c>
       <c r="BA52" t="n">
-        <v>344.8691482592436</v>
+        <v>328.9981781576107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>142</v>
@@ -9147,36 +9147,36 @@
         <v>-0.1084503345724336</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5213848094030917</v>
+        <v>0.5361833861612686</v>
       </c>
       <c r="AU53" t="n">
-        <v>-0.0593621279439803</v>
+        <v>-0.07308134373132268</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.5247532579320835</v>
+        <v>0.5411409302547164</v>
       </c>
       <c r="AW53" t="n">
-        <v>353.5045745076929</v>
+        <v>352.2384609439605</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.1500588797655194</v>
+        <v>0.1649606152247204</v>
       </c>
       <c r="AY53" t="n">
-        <v>0.02859870506676369</v>
+        <v>0.001133777645715131</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.1527597896305777</v>
+        <v>0.1649645114170565</v>
       </c>
       <c r="BA53" t="n">
-        <v>10.79021560267915</v>
+        <v>0.3937888511549619</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
         <v>144</v>
@@ -9310,36 +9310,36 @@
         <v>0.2712551495611421</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.417967269894733</v>
+        <v>1.432011780863083</v>
       </c>
       <c r="AU54" t="n">
-        <v>-0.1751521953521632</v>
+        <v>-0.1865796132700705</v>
       </c>
       <c r="AV54" t="n">
-        <v>1.428744018370473</v>
+        <v>1.444115539913157</v>
       </c>
       <c r="AW54" t="n">
-        <v>352.9582978261346</v>
+        <v>352.5766387468517</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.04003548832105741</v>
+        <v>0.05412832560636863</v>
       </c>
       <c r="AY54" t="n">
-        <v>0.09038543822857699</v>
+        <v>0.09303898420368276</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0.09885528700518466</v>
+        <v>0.1076388787316283</v>
       </c>
       <c r="BA54" t="n">
-        <v>66.10944522343422</v>
+        <v>59.80996297712029</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>145</v>
@@ -9473,36 +9473,36 @@
         <v>-0.2353237479565151</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.219419079667941</v>
+        <v>1.233630578509108</v>
       </c>
       <c r="AU55" t="n">
-        <v>1.446657190535419</v>
+        <v>1.403129788755301</v>
       </c>
       <c r="AV55" t="n">
-        <v>1.892035918999964</v>
+        <v>1.86831946099301</v>
       </c>
       <c r="AW55" t="n">
-        <v>49.87172603331195</v>
+        <v>48.67809127954911</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.06440016889035294</v>
+        <v>0.07867213668019743</v>
       </c>
       <c r="AY55" t="n">
-        <v>-0.7750282022343246</v>
+        <v>-1.19422796316071</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.7776992323589339</v>
+        <v>1.196816499336806</v>
       </c>
       <c r="BA55" t="n">
-        <v>274.7500214001255</v>
+        <v>273.7690272121701</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>146</v>
@@ -9636,36 +9636,36 @@
         <v>-0.2220796495284731</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.55146288012023</v>
+        <v>1.565395115333478</v>
       </c>
       <c r="AU56" t="n">
-        <v>-0.09621548161577753</v>
+        <v>-0.109205270092841</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.554443465454281</v>
+        <v>1.569199687141813</v>
       </c>
       <c r="AW56" t="n">
-        <v>356.4512911938965</v>
+        <v>356.0093907742764</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.02365368248927346</v>
+        <v>0.03762607981496902</v>
       </c>
       <c r="AY56" t="n">
-        <v>0.04826402162116401</v>
+        <v>0.03038512154225559</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.05374860443166454</v>
+        <v>0.04836297647353876</v>
       </c>
       <c r="BA56" t="n">
-        <v>63.89101841323731</v>
+        <v>38.92277536472096</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
         <v>147</v>
@@ -9799,36 +9799,36 @@
         <v>-0.2141311150696303</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.880551499839587</v>
+        <v>1.894206956863559</v>
       </c>
       <c r="AU57" t="n">
-        <v>-0.05930953161780735</v>
+        <v>-0.07302978842836494</v>
       </c>
       <c r="AV57" t="n">
-        <v>1.881486530403458</v>
+        <v>1.89561423961422</v>
       </c>
       <c r="AW57" t="n">
-        <v>358.1935831967757</v>
+        <v>357.7920959156169</v>
       </c>
       <c r="AX57" t="n">
-        <v>-0.01673016129844249</v>
+        <v>-0.003054668267966937</v>
       </c>
       <c r="AY57" t="n">
-        <v>0.02857063914329304</v>
+        <v>0.001092030746958483</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.03310860489552786</v>
+        <v>0.00324399897959707</v>
       </c>
       <c r="BA57" t="n">
-        <v>120.3520376144387</v>
+        <v>160.3282488586428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C58" t="n">
         <v>153</v>
@@ -9962,36 +9962,36 @@
         <v>-0.2765458302875806</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.8685180712966226</v>
+        <v>0.8830246935176104</v>
       </c>
       <c r="AU58" t="n">
-        <v>0.5831527298920073</v>
+        <v>0.5567164113753089</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.046131323758784</v>
+        <v>1.043870572464073</v>
       </c>
       <c r="AW58" t="n">
-        <v>33.87876179330956</v>
+        <v>32.23000785379131</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.1074607023086886</v>
+        <v>0.1220492535667531</v>
       </c>
       <c r="AY58" t="n">
-        <v>-0.3142536220993144</v>
+        <v>-0.5088448591039731</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.3321191676841542</v>
+        <v>0.5232772792055317</v>
       </c>
       <c r="BA58" t="n">
-        <v>288.8783967476057</v>
+        <v>283.4879063422234</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>155</v>
@@ -10125,36 +10125,36 @@
         <v>0.3758730628610356</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.035596906630033</v>
+        <v>3.04828091901245</v>
       </c>
       <c r="AU59" t="n">
-        <v>-1.411378410922908</v>
+        <v>-1.398337576335207</v>
       </c>
       <c r="AV59" t="n">
-        <v>3.347661511915609</v>
+        <v>3.353709071849615</v>
       </c>
       <c r="AW59" t="n">
-        <v>335.0642750533386</v>
+        <v>335.3576613187608</v>
       </c>
       <c r="AX59" t="n">
-        <v>-0.1584706241419245</v>
+        <v>-0.1458372149815709</v>
       </c>
       <c r="AY59" t="n">
-        <v>0.7500480588559999</v>
+        <v>1.0742598111498</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.7666061761488651</v>
+        <v>1.084113755620315</v>
       </c>
       <c r="BA59" t="n">
-        <v>101.9300363664613</v>
+        <v>97.73098381378144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
         <v>158</v>
@@ -10288,36 +10288,36 @@
         <v>-0.02509384733347889</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.3413380930540357</v>
+        <v>0.3562880971213024</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.09230508588785244</v>
+        <v>0.07558396669632923</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.3535985331566427</v>
+        <v>0.3642171662234915</v>
       </c>
       <c r="AW60" t="n">
-        <v>15.13207052427904</v>
+        <v>11.97731794741469</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.1721531669327028</v>
+        <v>0.1872173408362046</v>
       </c>
       <c r="AY60" t="n">
-        <v>-0.05233243073945724</v>
+        <v>-0.1192479349423627</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.1799316431094296</v>
+        <v>0.2219693733328937</v>
       </c>
       <c r="BA60" t="n">
-        <v>343.0913777354515</v>
+        <v>327.5049342204788</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>159</v>
@@ -10451,36 +10451,36 @@
         <v>0.07077673431670062</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.032255730555179</v>
+        <v>1.046624642110618</v>
       </c>
       <c r="AU61" t="n">
-        <v>0.3484204410609287</v>
+        <v>0.3266301079164841</v>
       </c>
       <c r="AV61" t="n">
-        <v>1.089471751360768</v>
+        <v>1.096407939076836</v>
       </c>
       <c r="AW61" t="n">
-        <v>18.65123951805961</v>
+        <v>17.33207327276067</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.08736776789089337</v>
+        <v>0.10180859476285</v>
       </c>
       <c r="AY61" t="n">
-        <v>-0.1889981350000593</v>
+        <v>-0.3225325097485205</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.208214845531575</v>
+        <v>0.3382191742232626</v>
       </c>
       <c r="BA61" t="n">
-        <v>294.8095845914426</v>
+        <v>287.5184966360778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>166</v>
@@ -10614,36 +10614,36 @@
         <v>-0.1149620515602701</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.893991869461252</v>
+        <v>1.907636022535636</v>
       </c>
       <c r="AU62" t="n">
-        <v>-0.243114508864802</v>
+        <v>-0.2531967692161187</v>
       </c>
       <c r="AV62" t="n">
-        <v>1.909531321032965</v>
+        <v>1.924365817202401</v>
       </c>
       <c r="AW62" t="n">
-        <v>352.6854596626475</v>
+        <v>352.4394349280574</v>
       </c>
       <c r="AX62" t="n">
-        <v>-0.01837948538541137</v>
+        <v>-0.004716118278565218</v>
       </c>
       <c r="AY62" t="n">
-        <v>0.1266508055788006</v>
+        <v>0.1469822161349478</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0.1279774669103577</v>
+        <v>0.1470578581088339</v>
       </c>
       <c r="BA62" t="n">
-        <v>98.25708579484655</v>
+        <v>91.83778014914466</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>167</v>
@@ -10777,36 +10777,36 @@
         <v>-0.1145761141840171</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5964883368382224</v>
+        <v>0.6112237481841483</v>
       </c>
       <c r="AU63" t="n">
-        <v>0.5353859619486941</v>
+        <v>0.5098950766582878</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.8015213435933926</v>
+        <v>0.7959820723764074</v>
       </c>
       <c r="AW63" t="n">
-        <v>41.90998077122929</v>
+        <v>39.83553976166439</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.1408426111433068</v>
+        <v>0.1556765880762462</v>
       </c>
       <c r="AY63" t="n">
-        <v>-0.2887647989992151</v>
+        <v>-0.4709312904127915</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.3212814190934823</v>
+        <v>0.4959954438953226</v>
       </c>
       <c r="BA63" t="n">
-        <v>296.0004180660303</v>
+        <v>288.2924274756912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>168</v>
@@ -10940,36 +10940,36 @@
         <v>0.04371800065763138</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.8609920726169489</v>
+        <v>0.8755050245380911</v>
       </c>
       <c r="AU64" t="n">
-        <v>-0.8776529953351483</v>
+        <v>-0.8751760268690152</v>
       </c>
       <c r="AV64" t="n">
-        <v>1.229464163499688</v>
+        <v>1.237918465003927</v>
       </c>
       <c r="AW64" t="n">
-        <v>314.4509682545389</v>
+        <v>315.0107673397565</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.1083842491493107</v>
+        <v>0.1229795903757908</v>
       </c>
       <c r="AY64" t="n">
-        <v>0.4652468615447674</v>
+        <v>0.6506298257563928</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.4777047075766742</v>
+        <v>0.6621503981821588</v>
       </c>
       <c r="BA64" t="n">
-        <v>76.88622558577228</v>
+        <v>79.2964452150224</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="C65" t="n">
         <v>176</v>
@@ -11103,36 +11103,36 @@
         <v>0.1707608777136245</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.4427302749791051</v>
+        <v>0.4575950037045994</v>
       </c>
       <c r="AU65" t="n">
-        <v>0.1771742629354562</v>
+        <v>0.1587733537283287</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.4768656161119149</v>
+        <v>0.4843574767354721</v>
       </c>
       <c r="AW65" t="n">
-        <v>21.81057423926628</v>
+        <v>19.13542053675879</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.159710907338161</v>
+        <v>0.1746836050479829</v>
       </c>
       <c r="AY65" t="n">
-        <v>-0.09761946885316339</v>
+        <v>-0.186610528483901</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.1871820894796091</v>
+        <v>0.2556126976767791</v>
       </c>
       <c r="BA65" t="n">
-        <v>328.5656393097242</v>
+        <v>313.1092571448315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="C66" t="n">
         <v>187</v>
@@ -11266,36 +11266,36 @@
         <v>0.1761754980405573</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.218339901381812</v>
+        <v>2.231711263312442</v>
       </c>
       <c r="AU66" t="n">
-        <v>-2.1377778734985</v>
+        <v>-2.110359633508478</v>
       </c>
       <c r="AV66" t="n">
-        <v>3.080767137334862</v>
+        <v>3.07150662469376</v>
       </c>
       <c r="AW66" t="n">
-        <v>316.0595071762855</v>
+        <v>316.6008782361095</v>
       </c>
       <c r="AX66" t="n">
-        <v>-0.05818159177579107</v>
+        <v>-0.04481085199803791</v>
       </c>
       <c r="AY66" t="n">
-        <v>1.137662046546544</v>
+        <v>1.650819564036588</v>
       </c>
       <c r="AZ66" t="n">
-        <v>1.139148818097985</v>
+        <v>1.651427638579039</v>
       </c>
       <c r="BA66" t="n">
-        <v>92.92763389207792</v>
+        <v>91.55488972485173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="C67" t="n">
         <v>196</v>
@@ -11429,36 +11429,36 @@
         <v>-0.2416192117561191</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.3138991992643161</v>
+        <v>0.3288722806635955</v>
       </c>
       <c r="AU67" t="n">
-        <v>-0.07455831486968759</v>
+        <v>-0.0879767571140187</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.3226323753360569</v>
+        <v>0.3404363182464142</v>
       </c>
       <c r="AW67" t="n">
-        <v>346.6385280121051</v>
+        <v>345.0234591149942</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.1755203085903412</v>
+        <v>0.1906092379090536</v>
       </c>
       <c r="AY67" t="n">
-        <v>0.03670754175433399</v>
+        <v>0.01319533637490468</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0.179317657661745</v>
+        <v>0.1910654298357426</v>
       </c>
       <c r="BA67" t="n">
-        <v>11.81233524733001</v>
+        <v>3.960106072400906</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="C68" t="n">
         <v>197</v>
@@ -11592,36 +11592,36 @@
         <v>-0.3118990689007656</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8711829752762271</v>
+        <v>0.8856873561942531</v>
       </c>
       <c r="AU68" t="n">
-        <v>-0.7729327469549522</v>
+        <v>-0.7725284747700847</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.164639346633312</v>
+        <v>1.175262667344181</v>
       </c>
       <c r="AW68" t="n">
-        <v>318.4198546366578</v>
+        <v>318.9038886792002</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.1071336807723214</v>
+        <v>0.1217198277496223</v>
       </c>
       <c r="AY68" t="n">
-        <v>0.4093670940643943</v>
+        <v>0.5675109860008557</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.4231536875161934</v>
+        <v>0.5804174667418798</v>
       </c>
       <c r="BA68" t="n">
-        <v>75.33428343463483</v>
+        <v>77.89459340785787</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="C69" t="n">
         <v>202</v>
@@ -11755,36 +11755,36 @@
         <v>0.07773843015289379</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.515565020914134</v>
+        <v>2.528686403278585</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.0008267893616082395</v>
+        <v>-0.01408372750649338</v>
       </c>
       <c r="AV69" t="n">
-        <v>2.51556515678433</v>
+        <v>2.52872562321547</v>
       </c>
       <c r="AW69" t="n">
-        <v>0.01883137142823893</v>
+        <v>359.6808897294516</v>
       </c>
       <c r="AX69" t="n">
-        <v>-0.09465533191063558</v>
+        <v>-0.08155274912570609</v>
       </c>
       <c r="AY69" t="n">
-        <v>-0.003518700649471619</v>
+        <v>-0.04663953315105897</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.0947207111109982</v>
+        <v>0.0939473093947298</v>
       </c>
       <c r="BA69" t="n">
-        <v>182.1289229368578</v>
+        <v>209.7649829272668</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
         <v>205</v>
@@ -11918,36 +11918,36 @@
         <v>0.04835897463688648</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.135975815121238</v>
+        <v>1.150257493465082</v>
       </c>
       <c r="AU70" t="n">
-        <v>-1.071680762874217</v>
+        <v>-1.065363461344888</v>
       </c>
       <c r="AV70" t="n">
-        <v>1.561710827923987</v>
+        <v>1.56783022232681</v>
       </c>
       <c r="AW70" t="n">
-        <v>316.6681915908588</v>
+        <v>317.1942794295541</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.07463984160667111</v>
+        <v>0.08898709204734755</v>
       </c>
       <c r="AY70" t="n">
-        <v>0.5687820106923838</v>
+        <v>0.8046340719997042</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.5736585061187012</v>
+        <v>0.809539802834838</v>
       </c>
       <c r="BA70" t="n">
-        <v>82.52393699086755</v>
+        <v>83.68911968323806</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="C71" t="n">
         <v>207</v>
@@ -12081,36 +12081,36 @@
         <v>-0.02406902716117196</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29938699172258</v>
+        <v>1.313531233987334</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.8850029834874098</v>
+        <v>0.8525922339718959</v>
       </c>
       <c r="AV71" t="n">
-        <v>1.572144024903403</v>
+        <v>1.5659750381438</v>
       </c>
       <c r="AW71" t="n">
-        <v>34.25849125018378</v>
+        <v>32.98696113676144</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.0545869712440826</v>
+        <v>0.06878679185184269</v>
       </c>
       <c r="AY71" t="n">
-        <v>-0.475323923647535</v>
+        <v>-0.7484302616106122</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.4784480847712633</v>
+        <v>0.7515846454177987</v>
       </c>
       <c r="BA71" t="n">
-        <v>276.5512403954408</v>
+        <v>275.2511927374111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="C72" t="n">
         <v>209</v>
@@ -12244,36 +12244,36 @@
         <v>-0.7087363721266581</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.527508802086335</v>
+        <v>1.541461183746305</v>
       </c>
       <c r="AU72" t="n">
-        <v>2.362365495302384</v>
+        <v>2.300713755322419</v>
       </c>
       <c r="AV72" t="n">
-        <v>2.81319282557142</v>
+        <v>2.769365697217749</v>
       </c>
       <c r="AW72" t="n">
-        <v>57.11323527361151</v>
+        <v>56.17820753251593</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.02659318780010597</v>
+        <v>0.0405871965344925</v>
       </c>
       <c r="AY72" t="n">
-        <v>-1.263659273509566</v>
+        <v>-1.921046444056653</v>
       </c>
       <c r="AZ72" t="n">
-        <v>1.263939063865065</v>
+        <v>1.921475152258087</v>
       </c>
       <c r="BA72" t="n">
-        <v>271.2055880756229</v>
+        <v>271.2103450961399</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="C73" t="n">
         <v>210</v>
@@ -12407,36 +12407,36 @@
         <v>-0.05071446823291063</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.236227900734951</v>
+        <v>1.250425262608809</v>
       </c>
       <c r="AU73" t="n">
-        <v>0.3069368872722102</v>
+        <v>0.2859676255919908</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.273762016753482</v>
+        <v>1.282708392526154</v>
       </c>
       <c r="AW73" t="n">
-        <v>13.94372595971626</v>
+        <v>12.88180051359093</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.06233748800881805</v>
+        <v>0.07659429085258623</v>
       </c>
       <c r="AY73" t="n">
-        <v>-0.1668620975495263</v>
+        <v>-0.2896060708487941</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0.1781261407258271</v>
+        <v>0.2995636187251171</v>
       </c>
       <c r="BA73" t="n">
-        <v>290.485027812278</v>
+        <v>284.814251007284</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="C74" t="n">
         <v>215</v>
@@ -12570,36 +12570,36 @@
         <v>0.06442957427311208</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8205279569136522</v>
+        <v>0.8350749409586782</v>
       </c>
       <c r="AU74" t="n">
-        <v>0.1858456732715668</v>
+        <v>0.1672731334558895</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.8413113230847747</v>
+        <v>0.8516633479217546</v>
       </c>
       <c r="AW74" t="n">
-        <v>12.76189995273205</v>
+        <v>11.32696198487704</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.1133497703787095</v>
+        <v>0.127981618397083</v>
       </c>
       <c r="AY74" t="n">
-        <v>-0.1022466197700476</v>
+        <v>-0.193493223830124</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0.1526517006105954</v>
+        <v>0.2319890564567885</v>
       </c>
       <c r="BA74" t="n">
-        <v>317.9481112683167</v>
+        <v>303.4817213954459</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="C75" t="n">
         <v>219</v>
@@ -12733,36 +12733,36 @@
         <v>0.05200411487796075</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5475537648408186</v>
+        <v>0.5623303323417096</v>
       </c>
       <c r="AU75" t="n">
-        <v>-0.02490155405620845</v>
+        <v>-0.03930283758548501</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.5481197066205236</v>
+        <v>0.5637021515958659</v>
       </c>
       <c r="AW75" t="n">
-        <v>357.3961067543362</v>
+        <v>356.0019396549728</v>
       </c>
       <c r="AX75" t="n">
-        <v>0.1468475775655646</v>
+        <v>0.1617257033500296</v>
       </c>
       <c r="AY75" t="n">
-        <v>0.01021019963562998</v>
+        <v>-0.02621836258663399</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0.1472021032916103</v>
+        <v>0.1638371315080498</v>
       </c>
       <c r="BA75" t="n">
-        <v>3.977330700749883</v>
+        <v>350.7915373280491</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="C76" t="n">
         <v>224</v>
@@ -12896,36 +12896,36 @@
         <v>-0.1290260306036715</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.043653894604719</v>
+        <v>1.058013219796432</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.7858922087673372</v>
+        <v>0.7554431289133566</v>
       </c>
       <c r="AV76" t="n">
-        <v>1.306460874088773</v>
+        <v>1.300033189686485</v>
       </c>
       <c r="AW76" t="n">
-        <v>36.98047684823074</v>
+        <v>35.52761456455864</v>
       </c>
       <c r="AX76" t="n">
-        <v>0.08596905140888339</v>
+        <v>0.1003995948384444</v>
       </c>
       <c r="AY76" t="n">
-        <v>-0.4224374271788668</v>
+        <v>-0.6697637885127242</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0.4310963438509351</v>
+        <v>0.6772470827154894</v>
       </c>
       <c r="BA76" t="n">
-        <v>281.5030196542335</v>
+        <v>278.5253296070141</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C77" t="n">
         <v>228</v>
@@ -13059,36 +13059,36 @@
         <v>0.1292768377587739</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.9360032639206641</v>
+        <v>0.9504531280883549</v>
       </c>
       <c r="AU77" t="n">
-        <v>0.3089149327799063</v>
+        <v>0.2879065202417451</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.9856624907972051</v>
+        <v>0.9931018644080017</v>
       </c>
       <c r="AW77" t="n">
-        <v>18.26475881536785</v>
+        <v>16.85234842620456</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.09917931148077934</v>
+        <v>0.1137069774868077</v>
       </c>
       <c r="AY77" t="n">
-        <v>-0.1679176023324634</v>
+        <v>-0.2911760904975867</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0.1950201451104084</v>
+        <v>0.3125904547593292</v>
       </c>
       <c r="BA77" t="n">
-        <v>300.5679140272694</v>
+        <v>291.3311086157483</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="C78" t="n">
         <v>230</v>
@@ -13222,36 +13222,36 @@
         <v>-0.3863811413649403</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.015793469999822</v>
+        <v>1.030176227049742</v>
       </c>
       <c r="AU78" t="n">
-        <v>0.3416637314052327</v>
+        <v>0.3200071317764508</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.071713804638172</v>
+        <v>1.078734269023763</v>
       </c>
       <c r="AW78" t="n">
-        <v>18.59044679310186</v>
+        <v>17.25653897618395</v>
       </c>
       <c r="AX78" t="n">
-        <v>0.08938792087955383</v>
+        <v>0.1038436000301218</v>
       </c>
       <c r="AY78" t="n">
-        <v>-0.185392687435402</v>
+        <v>-0.3171695558228622</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0.2058170278516577</v>
+        <v>0.3337364535199708</v>
       </c>
       <c r="BA78" t="n">
-        <v>295.7412502104471</v>
+        <v>288.1288199209353</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="C79" t="n">
         <v>233</v>
@@ -13385,36 +13385,36 @@
         <v>-0.1447190079728727</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.4934354782640419</v>
+        <v>0.5082575616547811</v>
       </c>
       <c r="AU79" t="n">
-        <v>0.211917973251508</v>
+        <v>0.1928293922685459</v>
       </c>
       <c r="AV79" t="n">
-        <v>0.5370175030636252</v>
+        <v>0.5436073247316673</v>
       </c>
       <c r="AW79" t="n">
-        <v>23.24229119792214</v>
+        <v>20.77639776749662</v>
       </c>
       <c r="AX79" t="n">
-        <v>0.153488659329617</v>
+        <v>0.1684156107214467</v>
       </c>
       <c r="AY79" t="n">
-        <v>-0.1161590587022796</v>
+        <v>-0.214187400530538</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0.1924881696660937</v>
+        <v>0.2724702928407187</v>
       </c>
       <c r="BA79" t="n">
-        <v>322.8818389274937</v>
+        <v>308.1779796057876</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
         <v>234</v>
@@ -13548,36 +13548,36 @@
         <v>-0.1883579189686148</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.2641084313278129</v>
+        <v>0.2791233889809838</v>
       </c>
       <c r="AU80" t="n">
-        <v>0.05894300261442453</v>
+        <v>0.04288220907152906</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.2706058777182087</v>
+        <v>0.2823982119828026</v>
       </c>
       <c r="AW80" t="n">
-        <v>12.58094310056411</v>
+        <v>8.734160341987602</v>
       </c>
       <c r="AX80" t="n">
-        <v>0.1816303424047372</v>
+        <v>0.196764193036363</v>
       </c>
       <c r="AY80" t="n">
-        <v>-0.03453009084038046</v>
+        <v>-0.09276769166173891</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0.1848834996842796</v>
+        <v>0.2175361861334766</v>
       </c>
       <c r="BA80" t="n">
-        <v>349.2358446176163</v>
+        <v>334.7577008062842</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="C81" t="n">
         <v>238</v>
@@ -13711,36 +13711,36 @@
         <v>0.1857720264583402</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.298911464690946</v>
+        <v>2.312215062347566</v>
       </c>
       <c r="AU81" t="n">
-        <v>0.3025786975931962</v>
+        <v>0.2816956962463934</v>
       </c>
       <c r="AV81" t="n">
-        <v>2.318738404979024</v>
+        <v>2.329311262976827</v>
       </c>
       <c r="AW81" t="n">
-        <v>7.498071025923935</v>
+        <v>6.946078014306885</v>
       </c>
       <c r="AX81" t="n">
-        <v>-0.06806886599749745</v>
+        <v>-0.05477081801698563</v>
       </c>
       <c r="AY81" t="n">
-        <v>-0.1645365241321057</v>
+        <v>-0.2861468767086214</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0.1780607713441124</v>
+        <v>0.2913415136164922</v>
       </c>
       <c r="BA81" t="n">
-        <v>247.5250888239149</v>
+        <v>259.1641881920998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="C82" t="n">
         <v>252</v>
@@ -13874,36 +13874,36 @@
         <v>-0.1119437056535696</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6153757507664332</v>
+        <v>0.6300952769558574</v>
       </c>
       <c r="AU82" t="n">
-        <v>-0.2721351839753144</v>
+        <v>-0.281643046859935</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.672863190395068</v>
+        <v>0.6901759658859661</v>
       </c>
       <c r="AW82" t="n">
-        <v>336.1437375641233</v>
+        <v>335.9160798685406</v>
       </c>
       <c r="AX82" t="n">
-        <v>0.1385248574200658</v>
+        <v>0.1533417940970228</v>
       </c>
       <c r="AY82" t="n">
-        <v>0.1421365268445798</v>
+        <v>0.1700165851459017</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0.1984739992711627</v>
+        <v>0.2289527135492553</v>
       </c>
       <c r="BA82" t="n">
-        <v>45.7372656349855</v>
+        <v>47.95198669948788</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="C83" t="n">
         <v>253</v>
@@ -14037,36 +14037,36 @@
         <v>-0.1572574531374557</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.833338333939894</v>
+        <v>1.847033499339619</v>
       </c>
       <c r="AU83" t="n">
-        <v>0.05928823241998141</v>
+        <v>0.0432206058477031</v>
       </c>
       <c r="AV83" t="n">
-        <v>1.834296742950004</v>
+        <v>1.847539111481162</v>
       </c>
       <c r="AW83" t="n">
-        <v>1.852239699238343</v>
+        <v>1.340477293463157</v>
       </c>
       <c r="AX83" t="n">
-        <v>-0.01093643583311746</v>
+        <v>0.002781652993464667</v>
       </c>
       <c r="AY83" t="n">
-        <v>-0.03471430890288709</v>
+        <v>-0.0930417083999607</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0.03639627551463146</v>
+        <v>0.0930832804286536</v>
       </c>
       <c r="BA83" t="n">
-        <v>252.5134277554766</v>
+        <v>271.7124526188931</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C84" t="n">
         <v>254</v>
@@ -14200,36 +14200,36 @@
         <v>-0.1635769194035736</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.221954725714789</v>
+        <v>1.236164091964673</v>
       </c>
       <c r="AU84" t="n">
-        <v>0.6588349314545338</v>
+        <v>0.6309006579562244</v>
       </c>
       <c r="AV84" t="n">
-        <v>1.388249551990349</v>
+        <v>1.387853487394272</v>
       </c>
       <c r="AW84" t="n">
-        <v>28.33198203098301</v>
+        <v>27.03838762384477</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.06408900913665447</v>
+        <v>0.07835868926245546</v>
       </c>
       <c r="AY84" t="n">
-        <v>-0.3546383985979584</v>
+        <v>-0.5689155415300046</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0.3603828448362139</v>
+        <v>0.5742864943365014</v>
       </c>
       <c r="BA84" t="n">
-        <v>280.2437326585514</v>
+        <v>277.8422025137965</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="C85" t="n">
         <v>255</v>
@@ -14363,36 +14363,36 @@
         <v>0.06403378766626718</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.7896015071351664</v>
+        <v>0.8041745017021537</v>
       </c>
       <c r="AU85" t="n">
-        <v>-0.784827512522724</v>
+        <v>-0.7841878108317182</v>
       </c>
       <c r="AV85" t="n">
-        <v>1.113294554232047</v>
+        <v>1.123230676150251</v>
       </c>
       <c r="AW85" t="n">
-        <v>315.1737321282812</v>
+        <v>315.7209265732068</v>
       </c>
       <c r="AX85" t="n">
-        <v>0.1171448846486228</v>
+        <v>0.1318046345609693</v>
       </c>
       <c r="AY85" t="n">
-        <v>0.415714259435388</v>
+        <v>0.5769521316097529</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0.4319042364891229</v>
+        <v>0.5918160388674747</v>
       </c>
       <c r="BA85" t="n">
-        <v>74.2625969808324</v>
+        <v>77.13161806266712</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="C86" t="n">
         <v>261</v>
@@ -14526,36 +14526,36 @@
         <v>0.2517838096608827</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.9541302254149787</v>
+        <v>0.9685648440005411</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.1385310145914961</v>
+        <v>0.1208949595398684</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.9641344973882987</v>
+        <v>0.9760806566446949</v>
       </c>
       <c r="AW86" t="n">
-        <v>8.26109879218331</v>
+        <v>7.114785576984219</v>
       </c>
       <c r="AX86" t="n">
-        <v>0.09695487606287696</v>
+        <v>0.1114661878943625</v>
       </c>
       <c r="AY86" t="n">
-        <v>-0.07699904667552494</v>
+        <v>-0.1559385045303895</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0.1238107474386109</v>
+        <v>0.1916807977833869</v>
       </c>
       <c r="BA86" t="n">
-        <v>321.5443089564006</v>
+        <v>305.5575116186453</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="C87" t="n">
         <v>263</v>
@@ -14689,36 +14689,36 @@
         <v>0.156666580576383</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.295466368088927</v>
+        <v>1.309613907772811</v>
       </c>
       <c r="AU87" t="n">
-        <v>0.04020732854953207</v>
+        <v>0.02451736455070263</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.296090174377772</v>
+        <v>1.309843383231936</v>
       </c>
       <c r="AW87" t="n">
-        <v>1.777715732191907</v>
+        <v>1.072512615571232</v>
       </c>
       <c r="AX87" t="n">
-        <v>0.05506808740211597</v>
+        <v>0.06927144520298156</v>
       </c>
       <c r="AY87" t="n">
-        <v>-0.02453254856438031</v>
+        <v>-0.07789676159425188</v>
       </c>
       <c r="AZ87" t="n">
-        <v>0.06028548904330761</v>
+        <v>0.1042422111593063</v>
       </c>
       <c r="BA87" t="n">
-        <v>335.9872747139694</v>
+        <v>311.6458139705313</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="C88" t="n">
         <v>264</v>
@@ -14852,36 +14852,36 @@
         <v>0.2365078501517062</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5291466753372864</v>
+        <v>0.5439387240204405</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.1419262114362644</v>
+        <v>0.1242229562778458</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.5478496632408885</v>
+        <v>0.5579432572900156</v>
       </c>
       <c r="AW88" t="n">
-        <v>15.01432325560255</v>
+        <v>12.86440049841435</v>
       </c>
       <c r="AX88" t="n">
-        <v>0.1491063886655384</v>
+        <v>0.164001121356498</v>
       </c>
       <c r="AY88" t="n">
-        <v>-0.07881075752581765</v>
+        <v>-0.158633349384598</v>
       </c>
       <c r="AZ88" t="n">
-        <v>0.1686530481274259</v>
+        <v>0.2281685941210243</v>
       </c>
       <c r="BA88" t="n">
-        <v>332.1411360230709</v>
+        <v>315.9531601092574</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="C89" t="n">
         <v>272</v>
@@ -15015,36 +15015,36 @@
         <v>-0.04081949202073344</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.162519618800566</v>
+        <v>2.175937928075502</v>
       </c>
       <c r="AU89" t="n">
-        <v>-1.158793128414234</v>
+        <v>-1.150751638116259</v>
       </c>
       <c r="AV89" t="n">
-        <v>2.453424670976754</v>
+        <v>2.461490442692143</v>
       </c>
       <c r="AW89" t="n">
-        <v>331.8152244386437</v>
+        <v>332.1277340125121</v>
       </c>
       <c r="AX89" t="n">
-        <v>-0.05133165094869832</v>
+        <v>-0.03791055001997948</v>
       </c>
       <c r="AY89" t="n">
-        <v>0.6152660365263217</v>
+        <v>0.8737771351994643</v>
       </c>
       <c r="AZ89" t="n">
-        <v>0.617403623322643</v>
+        <v>0.874599160644578</v>
       </c>
       <c r="BA89" t="n">
-        <v>94.76914255214953</v>
+        <v>92.48433269070961</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="C90" t="n">
         <v>274</v>
@@ -15178,36 +15178,36 @@
         <v>0.08757450906612554</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.3667768473269195</v>
+        <v>0.3817054562686085</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.1554622881887481</v>
+        <v>0.1374911175471085</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.3983638773583214</v>
+        <v>0.4057127835668718</v>
       </c>
       <c r="AW90" t="n">
-        <v>22.97017865935491</v>
+        <v>19.80912805840824</v>
       </c>
       <c r="AX90" t="n">
-        <v>0.1690314707780734</v>
+        <v>0.1840726937955338</v>
       </c>
       <c r="AY90" t="n">
-        <v>-0.08603374289135193</v>
+        <v>-0.1693772409615503</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0.1896666629360413</v>
+        <v>0.2501427719461257</v>
       </c>
       <c r="BA90" t="n">
-        <v>333.0247879298476</v>
+        <v>317.3808258954283</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="C91" t="n">
         <v>278</v>
@@ -15341,36 +15341,36 @@
         <v>0.07554446154534547</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.882246976851254</v>
+        <v>0.8967420524510811</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.5539268182721937</v>
+        <v>0.5280689594064986</v>
       </c>
       <c r="AV91" t="n">
-        <v>1.041726762718676</v>
+        <v>1.040674365266503</v>
       </c>
       <c r="AW91" t="n">
-        <v>32.12303214268267</v>
+        <v>30.49276673750722</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.1057759707680862</v>
+        <v>0.1203521357849269</v>
       </c>
       <c r="AY91" t="n">
-        <v>-0.2986583845881516</v>
+        <v>-0.4856475892138439</v>
       </c>
       <c r="AZ91" t="n">
-        <v>0.3168365298963099</v>
+        <v>0.5003381031834493</v>
       </c>
       <c r="BA91" t="n">
-        <v>289.5026404853796</v>
+        <v>283.9185091596605</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C92" t="n">
         <v>280</v>
@@ -15504,36 +15504,36 @@
         <v>0.0003949329748175978</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.7376330201767065</v>
+        <v>0.7522497225562946</v>
       </c>
       <c r="AU92" t="n">
-        <v>-0.03840406941271817</v>
+        <v>-0.05253810172935854</v>
       </c>
       <c r="AV92" t="n">
-        <v>0.7386320768843352</v>
+        <v>0.7540821554839676</v>
       </c>
       <c r="AW92" t="n">
-        <v>357.0196478524343</v>
+        <v>356.0048754206554</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.1235221554913646</v>
+        <v>0.1382287914583162</v>
       </c>
       <c r="AY92" t="n">
-        <v>0.01741527630602316</v>
+        <v>-0.01550110945197992</v>
       </c>
       <c r="AZ92" t="n">
-        <v>0.1247437964231007</v>
+        <v>0.139095230623731</v>
       </c>
       <c r="BA92" t="n">
-        <v>8.025184122519176</v>
+        <v>353.6015284201065</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="C93" t="n">
         <v>281</v>
@@ -15667,36 +15667,36 @@
         <v>-0.1169162469624373</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.098672436933687</v>
+        <v>1.112985489080361</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.3756802696718408</v>
+        <v>0.3533503909642052</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.161127378326131</v>
+        <v>1.167729933545427</v>
       </c>
       <c r="AW93" t="n">
-        <v>18.87762026172862</v>
+        <v>17.6135909931524</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.07921749548836668</v>
+        <v>0.09359840109833931</v>
       </c>
       <c r="AY93" t="n">
-        <v>-0.2035442510367804</v>
+        <v>-0.3441692548968665</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.2184162853854384</v>
+        <v>0.3566695062721649</v>
       </c>
       <c r="BA93" t="n">
-        <v>291.2655164843197</v>
+        <v>285.2139029504458</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="C94" t="n">
         <v>282</v>
@@ -15830,36 +15830,36 @@
         <v>-0.02856045666301984</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.113676517300064</v>
+        <v>1.127976950346754</v>
       </c>
       <c r="AU94" t="n">
-        <v>0.09994397725615677</v>
+        <v>0.08307166379249438</v>
       </c>
       <c r="AV94" t="n">
-        <v>1.118152129084133</v>
+        <v>1.131031786396305</v>
       </c>
       <c r="AW94" t="n">
-        <v>5.12812208050223</v>
+        <v>4.212035053332438</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.07737628190215749</v>
+        <v>0.09174365080608904</v>
       </c>
       <c r="AY94" t="n">
-        <v>-0.05640861925191115</v>
+        <v>-0.1253110965311975</v>
       </c>
       <c r="AZ94" t="n">
-        <v>0.09575500679812636</v>
+        <v>0.1553054035669097</v>
       </c>
       <c r="BA94" t="n">
-        <v>323.9073177527326</v>
+        <v>306.2088693823613</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="C95" t="n">
         <v>287</v>
@@ -15993,36 +15993,36 @@
         <v>0.1237523911690452</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.72458115057107</v>
+        <v>1.738367785606874</v>
       </c>
       <c r="AU95" t="n">
-        <v>-0.9019377305040955</v>
+        <v>-0.8989801016016592</v>
       </c>
       <c r="AV95" t="n">
-        <v>1.946194187282429</v>
+        <v>1.957061005975919</v>
       </c>
       <c r="AW95" t="n">
-        <v>332.3909079046753</v>
+        <v>332.6546917852437</v>
       </c>
       <c r="AX95" t="n">
-        <v>0.002409613956462164</v>
+        <v>0.01622582369316802</v>
       </c>
       <c r="AY95" t="n">
-        <v>0.4782054380908849</v>
+        <v>0.6699051716635661</v>
       </c>
       <c r="AZ95" t="n">
-        <v>0.4782115089153693</v>
+        <v>0.6701016463015993</v>
       </c>
       <c r="BA95" t="n">
-        <v>89.71129658820358</v>
+        <v>88.61250588954064</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="C96" t="n">
         <v>294</v>
@@ -16156,36 +16156,36 @@
         <v>-0.2390206783018013</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.428868926750753</v>
+        <v>1.442904268940045</v>
       </c>
       <c r="AU96" t="n">
-        <v>-0.2219147701900686</v>
+        <v>-0.2324166305728463</v>
       </c>
       <c r="AV96" t="n">
-        <v>1.445998815719556</v>
+        <v>1.461502726474446</v>
       </c>
       <c r="AW96" t="n">
-        <v>351.1720349415785</v>
+        <v>350.8496456813453</v>
       </c>
       <c r="AX96" t="n">
-        <v>0.03869770031770373</v>
+        <v>0.05278070211022784</v>
       </c>
       <c r="AY96" t="n">
-        <v>0.1153384138865288</v>
+        <v>0.1301555020178558</v>
       </c>
       <c r="AZ96" t="n">
-        <v>0.1216571482804813</v>
+        <v>0.1404501948050221</v>
       </c>
       <c r="BA96" t="n">
-        <v>71.45265483272847</v>
+        <v>67.92644543507464</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="C97" t="n">
         <v>308</v>
@@ -16319,36 +16319,36 @@
         <v>0.2693272279557459</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.8500761642452935</v>
+        <v>0.8645982969316532</v>
       </c>
       <c r="AU97" t="n">
-        <v>-0.167533074958107</v>
+        <v>-0.1791112958272252</v>
       </c>
       <c r="AV97" t="n">
-        <v>0.8664276174170061</v>
+        <v>0.8829558716889667</v>
       </c>
       <c r="AW97" t="n">
-        <v>348.8510222214242</v>
+        <v>348.2960860218734</v>
       </c>
       <c r="AX97" t="n">
-        <v>0.1097237860158784</v>
+        <v>0.1243289755928865</v>
       </c>
       <c r="AY97" t="n">
-        <v>0.08631979970488778</v>
+        <v>0.0869915152861867</v>
       </c>
       <c r="AZ97" t="n">
-        <v>0.1396080837156295</v>
+        <v>0.1517406270705489</v>
       </c>
       <c r="BA97" t="n">
-        <v>38.19216093546839</v>
+        <v>34.98002805370496</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
         <v>311</v>
@@ -16482,36 +16482,36 @@
         <v>0.05751504718985227</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.926715149282051</v>
+        <v>2.939490736072814</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.4918693103256017</v>
+        <v>0.4672397369914547</v>
       </c>
       <c r="AV98" t="n">
-        <v>2.967759589905699</v>
+        <v>2.976393582724189</v>
       </c>
       <c r="AW98" t="n">
-        <v>9.54008501054782</v>
+        <v>9.031754523400743</v>
       </c>
       <c r="AX98" t="n">
-        <v>-0.1451092873572533</v>
+        <v>-0.1323776448959266</v>
       </c>
       <c r="AY98" t="n">
-        <v>-0.2655438802959448</v>
+        <v>-0.4363911355821295</v>
       </c>
       <c r="AZ98" t="n">
-        <v>0.3026057792573648</v>
+        <v>0.4560274817188681</v>
       </c>
       <c r="BA98" t="n">
-        <v>241.3451306830562</v>
+        <v>253.125019097319</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="C99" t="n">
         <v>312</v>
@@ -16645,36 +16645,36 @@
         <v>0.01513674208424663</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.84994769928762</v>
+        <v>1.86362889547118</v>
       </c>
       <c r="AU99" t="n">
-        <v>-0.4207842636121485</v>
+        <v>-0.427349960112115</v>
       </c>
       <c r="AV99" t="n">
-        <v>1.897199485189466</v>
+        <v>1.911999123546598</v>
       </c>
       <c r="AW99" t="n">
-        <v>347.1856739518233</v>
+        <v>347.0847533719079</v>
       </c>
       <c r="AX99" t="n">
-        <v>-0.01297464066738874</v>
+        <v>0.000728463162395776</v>
       </c>
       <c r="AY99" t="n">
-        <v>0.2214571561857208</v>
+        <v>0.2880027360694959</v>
       </c>
       <c r="AZ99" t="n">
-        <v>0.2218369070427971</v>
+        <v>0.2880036573415252</v>
       </c>
       <c r="BA99" t="n">
-        <v>93.35298865617865</v>
+        <v>89.85507854439994</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="C100" t="n">
         <v>314</v>
@@ -16808,36 +16808,36 @@
         <v>-0.1441661497152864</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.7834716437199842</v>
+        <v>0.7980497937751739</v>
       </c>
       <c r="AU100" t="n">
-        <v>0.1523168125051237</v>
+        <v>0.1344078993146752</v>
       </c>
       <c r="AV100" t="n">
-        <v>0.7981404812970051</v>
+        <v>0.8092891675679229</v>
       </c>
       <c r="AW100" t="n">
-        <v>11.00178651016561</v>
+        <v>9.560062480890782</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.1178971058795176</v>
+        <v>0.1325623861647425</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.08435528573970388</v>
+        <v>-0.1668806054651093</v>
       </c>
       <c r="AZ100" t="n">
-        <v>0.1449673818725898</v>
+        <v>0.2131241954966441</v>
       </c>
       <c r="BA100" t="n">
-        <v>324.4163098165464</v>
+        <v>308.4620361694707</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="C101" t="n">
         <v>315</v>
@@ -16971,36 +16971,36 @@
         <v>0.2177753549340898</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8473315723386616</v>
+        <v>0.8618560133490797</v>
       </c>
       <c r="AU101" t="n">
-        <v>-1.075344406083821</v>
+        <v>-1.068954591169794</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.369064054446567</v>
+        <v>1.373120426520904</v>
       </c>
       <c r="AW101" t="n">
-        <v>308.2368010173584</v>
+        <v>308.8778658164038</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.1100605863917558</v>
+        <v>0.1246682521441065</v>
       </c>
       <c r="AY101" t="n">
-        <v>0.5707369671965016</v>
+        <v>0.8075419888311743</v>
       </c>
       <c r="AZ101" t="n">
-        <v>0.5812521125996513</v>
+        <v>0.8171084608655542</v>
       </c>
       <c r="BA101" t="n">
-        <v>79.08509653812331</v>
+        <v>81.2239657729402</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="C102" t="n">
         <v>316</v>
@@ -17134,36 +17134,36 @@
         <v>0.327320793342688</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.617455300536917</v>
+        <v>1.631332033184794</v>
       </c>
       <c r="AU102" t="n">
-        <v>-0.04997624487617082</v>
+        <v>-0.06388123261527953</v>
       </c>
       <c r="AV102" t="n">
-        <v>1.61822720107125</v>
+        <v>1.632582314731873</v>
       </c>
       <c r="AW102" t="n">
-        <v>358.2302341222673</v>
+        <v>357.7575037916843</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.01555547599537085</v>
+        <v>0.02946833485057665</v>
       </c>
       <c r="AY102" t="n">
-        <v>0.02359030438456715</v>
+        <v>-0.006316010936193928</v>
       </c>
       <c r="AZ102" t="n">
-        <v>0.02825730515104169</v>
+        <v>0.03013759700128449</v>
       </c>
       <c r="BA102" t="n">
-        <v>56.59909226327289</v>
+        <v>347.9027003520008</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="C103" t="n">
         <v>319</v>
@@ -17297,36 +17297,36 @@
         <v>0.1214922040142574</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.794592404386992</v>
+        <v>1.808320156839507</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.05791372806930296</v>
+        <v>0.04187330664693885</v>
       </c>
       <c r="AV103" t="n">
-        <v>1.79552663521942</v>
+        <v>1.808804899219816</v>
       </c>
       <c r="AW103" t="n">
-        <v>1.848364568273533</v>
+        <v>1.326499108206526</v>
       </c>
       <c r="AX103" t="n">
-        <v>-0.006181760427420968</v>
+        <v>0.007571285040677223</v>
       </c>
       <c r="AY103" t="n">
-        <v>-0.03398085969220705</v>
+        <v>-0.09195073307632945</v>
       </c>
       <c r="AZ103" t="n">
-        <v>0.03453857245752189</v>
+        <v>0.09226191885302173</v>
       </c>
       <c r="BA103" t="n">
-        <v>259.6895678749942</v>
+        <v>274.7071539379413</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C104" t="n">
         <v>320</v>
@@ -17460,36 +17460,36 @@
         <v>-0.1947045557415997</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.881643226074856</v>
+        <v>1.895297764908431</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.2430050644710481</v>
+        <v>0.2233011860707979</v>
       </c>
       <c r="AV104" t="n">
-        <v>1.897269799367494</v>
+        <v>1.908406937046582</v>
       </c>
       <c r="AW104" t="n">
-        <v>7.358740607496839</v>
+        <v>6.719526752520129</v>
       </c>
       <c r="AX104" t="n">
-        <v>-0.01686413160036809</v>
+        <v>-0.003189623527101754</v>
       </c>
       <c r="AY104" t="n">
-        <v>-0.1327474401839794</v>
+        <v>-0.2388619309438116</v>
       </c>
       <c r="AZ104" t="n">
-        <v>0.1338143557696024</v>
+        <v>0.2388832261847844</v>
       </c>
       <c r="BA104" t="n">
-        <v>262.7599713449908</v>
+        <v>269.2349509008035</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="C105" t="n">
         <v>321</v>
@@ -17623,36 +17623,36 @@
         <v>0.007055993032766969</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.9352186335767796</v>
+        <v>0.9496691576535431</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.3383251975466037</v>
+        <v>-0.346522981462656</v>
       </c>
       <c r="AV105" t="n">
-        <v>0.9945339772396754</v>
+        <v>1.010915271266667</v>
       </c>
       <c r="AW105" t="n">
-        <v>340.111875377645</v>
+        <v>339.9535753469851</v>
       </c>
       <c r="AX105" t="n">
-        <v>0.09927559675878608</v>
+        <v>0.1138039706596042</v>
       </c>
       <c r="AY105" t="n">
-        <v>0.1774561772951593</v>
+        <v>0.2225531023576891</v>
       </c>
       <c r="AZ105" t="n">
-        <v>0.2033379919543421</v>
+        <v>0.2499624513940525</v>
       </c>
       <c r="BA105" t="n">
-        <v>60.77572499746903</v>
+        <v>62.9167742482303</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="C106" t="n">
         <v>322</v>
@@ -17786,36 +17786,36 @@
         <v>-0.01584654639597233</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.275722354910461</v>
+        <v>1.289886500188976</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.4039798140640937</v>
+        <v>0.3810898110124977</v>
       </c>
       <c r="AV106" t="n">
-        <v>1.338158143490354</v>
+        <v>1.345004322456737</v>
       </c>
       <c r="AW106" t="n">
-        <v>17.5713023871594</v>
+        <v>16.45948296164246</v>
       </c>
       <c r="AX106" t="n">
-        <v>0.05749095800949738</v>
+        <v>0.071712128891601</v>
       </c>
       <c r="AY106" t="n">
-        <v>-0.2186451697693093</v>
+        <v>-0.3666312460769716</v>
       </c>
       <c r="AZ106" t="n">
-        <v>0.2260772445787056</v>
+        <v>0.3735787735272422</v>
       </c>
       <c r="BA106" t="n">
-        <v>284.7319836631699</v>
+        <v>281.0671815029079</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="C107" t="n">
         <v>324</v>
@@ -17949,36 +17949,36 @@
         <v>0.1872201524536855</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6465448603242275</v>
+        <v>0.6612381719040059</v>
       </c>
       <c r="AU107" t="n">
-        <v>-0.6440000134219728</v>
+        <v>-0.6461476679319027</v>
       </c>
       <c r="AV107" t="n">
-        <v>0.9125548058605445</v>
+        <v>0.9245229736230399</v>
       </c>
       <c r="AW107" t="n">
-        <v>315.1129823541841</v>
+        <v>315.6613072953416</v>
       </c>
       <c r="AX107" t="n">
-        <v>0.1346999653516083</v>
+        <v>0.1494887812065394</v>
       </c>
       <c r="AY107" t="n">
-        <v>0.3405673033660914</v>
+        <v>0.4651741468170618</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0.3662378582120857</v>
+        <v>0.4886040140784744</v>
       </c>
       <c r="BA107" t="n">
-        <v>68.42038870903573</v>
+        <v>72.18462550848497</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="C108" t="n">
         <v>326</v>
@@ -18112,36 +18112,36 @@
         <v>-0.01746703249444418</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.342954342623334</v>
+        <v>0.3579029873527131</v>
       </c>
       <c r="AU108" t="n">
-        <v>0.0721020914750776</v>
+        <v>0.05578084405656394</v>
       </c>
       <c r="AV108" t="n">
-        <v>0.3504516981258382</v>
+        <v>0.3622237580828444</v>
       </c>
       <c r="AW108" t="n">
-        <v>11.87284794824019</v>
+        <v>8.858545655951895</v>
       </c>
       <c r="AX108" t="n">
-        <v>0.1719548301740991</v>
+        <v>0.187017545894575</v>
       </c>
       <c r="AY108" t="n">
-        <v>-0.04155191171228283</v>
+        <v>-0.1032123593860406</v>
       </c>
       <c r="AZ108" t="n">
-        <v>0.1769039993531763</v>
+        <v>0.2136079436782787</v>
       </c>
       <c r="BA108" t="n">
-        <v>346.4152173508963</v>
+        <v>331.1063103214112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="C109" t="n">
         <v>329</v>
@@ -18275,36 +18275,36 @@
         <v>-0.12651107971784</v>
       </c>
       <c r="AT109" t="n">
-        <v>3.134495900887885</v>
+        <v>3.147096734810424</v>
       </c>
       <c r="AU109" t="n">
-        <v>0.7477929980103458</v>
+        <v>0.7180980043400464</v>
       </c>
       <c r="AV109" t="n">
-        <v>3.222461624372935</v>
+        <v>3.227984293966064</v>
       </c>
       <c r="AW109" t="n">
-        <v>13.41817372353253</v>
+        <v>12.85357309673579</v>
       </c>
       <c r="AX109" t="n">
-        <v>-0.1706069342284819</v>
+        <v>-0.1580627519037848</v>
       </c>
       <c r="AY109" t="n">
-        <v>-0.4021073088758909</v>
+        <v>-0.6395235795492619</v>
       </c>
       <c r="AZ109" t="n">
-        <v>0.4368031751925033</v>
+        <v>0.65876721407406</v>
       </c>
       <c r="BA109" t="n">
-        <v>247.0093566136466</v>
+        <v>256.1171669098677</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="C110" t="n">
         <v>330</v>
@@ -18438,36 +18438,36 @@
         <v>0.04253008918979782</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.846116304234174</v>
+        <v>2.858959678244103</v>
       </c>
       <c r="AU110" t="n">
-        <v>-0.2832660625992809</v>
+        <v>-0.292553615361571</v>
       </c>
       <c r="AV110" t="n">
-        <v>2.86017791045384</v>
+        <v>2.873889013112154</v>
       </c>
       <c r="AW110" t="n">
-        <v>354.3162278341255</v>
+        <v>354.1573341378279</v>
       </c>
       <c r="AX110" t="n">
-        <v>-0.1352186652790437</v>
+        <v>-0.122414306406846</v>
       </c>
       <c r="AY110" t="n">
-        <v>0.1480760745345481</v>
+        <v>0.1788514163365691</v>
       </c>
       <c r="AZ110" t="n">
-        <v>0.2005258369622407</v>
+        <v>0.2167327652632753</v>
       </c>
       <c r="BA110" t="n">
-        <v>132.4013986154827</v>
+        <v>124.3895703746338</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="C111" t="n">
         <v>332</v>
@@ -18601,36 +18601,36 @@
         <v>-0.03611772669095634</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.365254045568246</v>
+        <v>1.3793428907065</v>
       </c>
       <c r="AU111" t="n">
-        <v>0.3445215267409197</v>
+        <v>0.3228083636312779</v>
       </c>
       <c r="AV111" t="n">
-        <v>1.408053156428533</v>
+        <v>1.416612879290904</v>
       </c>
       <c r="AW111" t="n">
-        <v>14.16288492647138</v>
+        <v>13.17190094270015</v>
       </c>
       <c r="AX111" t="n">
-        <v>0.04650414900754088</v>
+        <v>0.06064454425073826</v>
       </c>
       <c r="AY111" t="n">
-        <v>-0.1869176354882839</v>
+        <v>-0.3194378528927727</v>
       </c>
       <c r="AZ111" t="n">
-        <v>0.1926157790302926</v>
+        <v>0.3251435107888891</v>
       </c>
       <c r="BA111" t="n">
-        <v>283.9712379514308</v>
+        <v>280.7495451918617</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="C112" t="n">
         <v>333</v>
@@ -18764,36 +18764,36 @@
         <v>0.129069250550783</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.006535535438011</v>
+        <v>1.020926078823316</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.3378639388047424</v>
+        <v>0.3162825473244745</v>
       </c>
       <c r="AV112" t="n">
-        <v>1.061727754767737</v>
+        <v>1.068795915113643</v>
       </c>
       <c r="AW112" t="n">
-        <v>18.55536522518291</v>
+        <v>17.2129631001201</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.09052400083108753</v>
+        <v>0.1049880325054791</v>
       </c>
       <c r="AY112" t="n">
-        <v>-0.1833650802603488</v>
+        <v>-0.3141535741273474</v>
       </c>
       <c r="AZ112" t="n">
-        <v>0.2044929030195201</v>
+        <v>0.3312324789424465</v>
       </c>
       <c r="BA112" t="n">
-        <v>296.274714424843</v>
+        <v>288.4792847008404</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="C113" t="n">
         <v>335</v>
@@ -18927,36 +18927,36 @@
         <v>-0.01577754333641406</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5712848971751879</v>
+        <v>0.5860415057366217</v>
       </c>
       <c r="AU113" t="n">
-        <v>-0.4051426102983073</v>
+        <v>-0.4120178973231047</v>
       </c>
       <c r="AV113" t="n">
-        <v>0.7003620266831941</v>
+        <v>0.7163821565062877</v>
       </c>
       <c r="AW113" t="n">
-        <v>324.6565775125212</v>
+        <v>324.8907717781608</v>
       </c>
       <c r="AX113" t="n">
-        <v>0.1439354308559213</v>
+        <v>0.158792146373673</v>
       </c>
       <c r="AY113" t="n">
-        <v>0.2131106141968904</v>
+        <v>0.2755876005497189</v>
       </c>
       <c r="AZ113" t="n">
-        <v>0.2571644262705391</v>
+        <v>0.3180620557795435</v>
       </c>
       <c r="BA113" t="n">
-        <v>55.96481189375147</v>
+        <v>60.04967685061391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="C114" t="n">
         <v>337</v>
@@ -19090,36 +19090,36 @@
         <v>-0.06439937801194735</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.625116469089004</v>
+        <v>1.638986758352842</v>
       </c>
       <c r="AU114" t="n">
-        <v>-1.226433008473968</v>
+        <v>-1.217052742437455</v>
       </c>
       <c r="AV114" t="n">
-        <v>2.03596204836407</v>
+        <v>2.041444334761663</v>
       </c>
       <c r="AW114" t="n">
-        <v>322.9590973138397</v>
+        <v>323.4037458740298</v>
       </c>
       <c r="AX114" t="n">
-        <v>0.01461534189318678</v>
+        <v>0.02852128882949528</v>
       </c>
       <c r="AY114" t="n">
-        <v>0.6513593501748505</v>
+        <v>0.9274644443754039</v>
       </c>
       <c r="AZ114" t="n">
-        <v>0.651523300641549</v>
+        <v>0.927902882578275</v>
       </c>
       <c r="BA114" t="n">
-        <v>88.71460060714477</v>
+        <v>88.23860132726216</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="C115" t="n">
         <v>343</v>
@@ -19253,36 +19253,36 @@
         <v>-0.3369359766065051</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.7723243277663476</v>
+        <v>0.78691185321084</v>
       </c>
       <c r="AU115" t="n">
-        <v>0.8215208290059509</v>
+        <v>0.7903665626210227</v>
       </c>
       <c r="AV115" t="n">
-        <v>1.127555470808583</v>
+        <v>1.115306938933444</v>
       </c>
       <c r="AW115" t="n">
-        <v>46.76796171469255</v>
+        <v>45.12549461789911</v>
       </c>
       <c r="AX115" t="n">
-        <v>0.1192650397403356</v>
+        <v>0.1339403771523904</v>
       </c>
       <c r="AY115" t="n">
-        <v>-0.4414492137757821</v>
+        <v>-0.6980430336647464</v>
       </c>
       <c r="AZ115" t="n">
-        <v>0.4572762382275292</v>
+        <v>0.7107771109705255</v>
       </c>
       <c r="BA115" t="n">
-        <v>285.118496631013</v>
+        <v>280.8618846346524</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="C116" t="n">
         <v>345</v>
@@ -19416,36 +19416,36 @@
         <v>-0.1357673962269594</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.170602625584179</v>
+        <v>1.184855181237884</v>
       </c>
       <c r="AU116" t="n">
-        <v>-0.3243743916764681</v>
+        <v>-0.33284829968404</v>
       </c>
       <c r="AV116" t="n">
-        <v>1.214713650618965</v>
+        <v>1.230719217006387</v>
       </c>
       <c r="AW116" t="n">
-        <v>344.5119289460771</v>
+        <v>344.3089398801804</v>
       </c>
       <c r="AX116" t="n">
-        <v>0.07039064056837703</v>
+        <v>0.08470665064357082</v>
       </c>
       <c r="AY116" t="n">
-        <v>0.1700118883420171</v>
+        <v>0.2114800308598974</v>
       </c>
       <c r="AZ116" t="n">
-        <v>0.1840078380320929</v>
+        <v>0.2278135643805152</v>
       </c>
       <c r="BA116" t="n">
-        <v>67.5087997811453</v>
+        <v>68.17182079478644</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="C117" t="n">
         <v>350</v>
@@ -19579,36 +19579,36 @@
         <v>0.07510568772888816</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.917058869581933</v>
+        <v>1.930683622281638</v>
       </c>
       <c r="AU117" t="n">
-        <v>1.016481463191734</v>
+        <v>0.9814683997955246</v>
       </c>
       <c r="AV117" t="n">
-        <v>2.169873101002721</v>
+        <v>2.165829972353262</v>
       </c>
       <c r="AW117" t="n">
-        <v>27.93386141207146</v>
+        <v>26.94663414823649</v>
       </c>
       <c r="AX117" t="n">
-        <v>-0.02121013364763091</v>
+        <v>-0.007567577626320043</v>
       </c>
       <c r="AY117" t="n">
-        <v>-0.5454821498568224</v>
+        <v>-0.8527877173546917</v>
       </c>
       <c r="AZ117" t="n">
-        <v>0.5458943538650782</v>
+        <v>0.8528212937668453</v>
       </c>
       <c r="BA117" t="n">
-        <v>267.7732740724771</v>
+        <v>269.4915746678982</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="C118" t="n">
         <v>351</v>
@@ -19742,36 +19742,36 @@
         <v>-0.1965738593664377</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6433542486975077</v>
+        <v>0.6580502437237983</v>
       </c>
       <c r="AU118" t="n">
-        <v>-0.8050148077396245</v>
+        <v>-0.8039755450050564</v>
       </c>
       <c r="AV118" t="n">
-        <v>1.030511295424363</v>
+        <v>1.038945041968596</v>
       </c>
       <c r="AW118" t="n">
-        <v>308.6312581221539</v>
+        <v>309.3001657941513</v>
       </c>
       <c r="AX118" t="n">
-        <v>0.1350914986766762</v>
+        <v>0.1498831931066767</v>
       </c>
       <c r="AY118" t="n">
-        <v>0.4264864012152901</v>
+        <v>0.5929752463577178</v>
       </c>
       <c r="AZ118" t="n">
-        <v>0.44737049906792</v>
+        <v>0.6116245697884034</v>
       </c>
       <c r="BA118" t="n">
-        <v>72.42416605785819</v>
+        <v>75.81476768356187</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="C119" t="n">
         <v>353</v>
@@ -19905,36 +19905,36 @@
         <v>-0.1866344896980366</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.190680519456261</v>
+        <v>1.204916188706798</v>
       </c>
       <c r="AU119" t="n">
-        <v>0.9870487744549531</v>
+        <v>0.9526182633868373</v>
       </c>
       <c r="AV119" t="n">
-        <v>1.546604468687989</v>
+        <v>1.536002792167342</v>
       </c>
       <c r="AW119" t="n">
-        <v>39.65800782752071</v>
+        <v>38.3302337062838</v>
       </c>
       <c r="AX119" t="n">
-        <v>0.06792679806173567</v>
+        <v>0.08222469382797924</v>
       </c>
       <c r="AY119" t="n">
-        <v>-0.5297765740166822</v>
+        <v>-0.8294263237700896</v>
       </c>
       <c r="AZ119" t="n">
-        <v>0.5341135350014761</v>
+        <v>0.8334920076628632</v>
       </c>
       <c r="BA119" t="n">
-        <v>277.306475028902</v>
+        <v>275.6614856367513</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>356</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>356</v>
+        <v>118</v>
       </c>
       <c r="C120" t="n">
         <v>356</v>
@@ -20068,36 +20068,36 @@
         <v>0.1005491189837984</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.3101114987736772</v>
+        <v>0.3250877657978021</v>
       </c>
       <c r="AU120" t="n">
-        <v>-0.08464897786963818</v>
+        <v>-0.09786769866564375</v>
       </c>
       <c r="AV120" t="n">
-        <v>0.3214569817658824</v>
+        <v>0.3394998408151554</v>
       </c>
       <c r="AW120" t="n">
-        <v>344.7323087085142</v>
+        <v>343.2455742202616</v>
       </c>
       <c r="AX120" t="n">
-        <v>0.1759851131923936</v>
+        <v>0.1910774597807327</v>
       </c>
       <c r="AY120" t="n">
-        <v>0.04209202002746495</v>
+        <v>0.02120452479732858</v>
       </c>
       <c r="AZ120" t="n">
-        <v>0.1809488828794809</v>
+        <v>0.1922504291494249</v>
       </c>
       <c r="BA120" t="n">
-        <v>13.45127069547172</v>
+        <v>6.332400376347838</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="C121" t="n">
         <v>360</v>
@@ -20231,36 +20231,36 @@
         <v>-0.1960207558778926</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.20316504192739</v>
+        <v>2.216549166590823</v>
       </c>
       <c r="AU121" t="n">
-        <v>0.6668507242757853</v>
+        <v>0.6387577966085927</v>
       </c>
       <c r="AV121" t="n">
-        <v>2.301874473214831</v>
+        <v>2.306751336976471</v>
       </c>
       <c r="AW121" t="n">
-        <v>16.83993622567225</v>
+        <v>16.07574817908425</v>
       </c>
       <c r="AX121" t="n">
-        <v>-0.05631942117192595</v>
+        <v>-0.04293499061095693</v>
       </c>
       <c r="AY121" t="n">
-        <v>-0.3589157054793952</v>
+        <v>-0.5752778583629848</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0.3633075292929019</v>
+        <v>0.5768778273962915</v>
       </c>
       <c r="BA121" t="n">
-        <v>261.0821255477175</v>
+        <v>265.7317296202142</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="C122" t="n">
         <v>361</v>
@@ -20394,36 +20394,36 @@
         <v>0.2854254180960359</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.772160076849746</v>
+        <v>1.785906695889025</v>
       </c>
       <c r="AU122" t="n">
-        <v>-0.05546436686902136</v>
+        <v>-0.06926072986533519</v>
       </c>
       <c r="AV122" t="n">
-        <v>1.773027815340831</v>
+        <v>1.787249220204819</v>
       </c>
       <c r="AW122" t="n">
-        <v>358.2073644658417</v>
+        <v>357.7790778180995</v>
       </c>
       <c r="AX122" t="n">
-        <v>-0.00342899549792694</v>
+        <v>0.01034428845305549</v>
       </c>
       <c r="AY122" t="n">
-        <v>0.02651882093803253</v>
+        <v>-0.001959963853241725</v>
       </c>
       <c r="AZ122" t="n">
-        <v>0.0267395937528646</v>
+        <v>0.01052833139229723</v>
       </c>
       <c r="BA122" t="n">
-        <v>97.36770600356589</v>
+        <v>349.2711759408745</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>362</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>362</v>
+        <v>121</v>
       </c>
       <c r="C123" t="n">
         <v>362</v>
@@ -20557,36 +20557,36 @@
         <v>0.05902270608407684</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.031088074135715</v>
+        <v>2.044616923194668</v>
       </c>
       <c r="AU123" t="n">
-        <v>0.1978976338436246</v>
+        <v>0.1790865532085159</v>
       </c>
       <c r="AV123" t="n">
-        <v>2.040706308702267</v>
+        <v>2.052444970310809</v>
       </c>
       <c r="AW123" t="n">
-        <v>5.565007864780608</v>
+        <v>5.005721865738072</v>
       </c>
       <c r="AX123" t="n">
-        <v>-0.03520313525268334</v>
+        <v>-0.02166345656770033</v>
       </c>
       <c r="AY123" t="n">
-        <v>-0.1086776659608869</v>
+        <v>-0.2030591386844508</v>
       </c>
       <c r="AZ123" t="n">
-        <v>0.1142370159375885</v>
+        <v>0.2042114569600141</v>
       </c>
       <c r="BA123" t="n">
-        <v>252.0516972141489</v>
+        <v>263.9104074757079</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>363</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>363</v>
+        <v>122</v>
       </c>
       <c r="C124" t="n">
         <v>363</v>
@@ -20720,36 +20720,36 @@
         <v>-0.009217505609117478</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.831223774384638</v>
+        <v>1.844920718223147</v>
       </c>
       <c r="AU124" t="n">
-        <v>0.05921321882908279</v>
+        <v>0.04314707697817696</v>
       </c>
       <c r="AV124" t="n">
-        <v>1.832180863658285</v>
+        <v>1.845425188616643</v>
       </c>
       <c r="AW124" t="n">
-        <v>1.852032444852275</v>
+        <v>1.339729571898608</v>
       </c>
       <c r="AX124" t="n">
-        <v>-0.01067694936764166</v>
+        <v>0.003043047218057093</v>
       </c>
       <c r="AY124" t="n">
-        <v>-0.03467428090369764</v>
+        <v>-0.09298216840900544</v>
       </c>
       <c r="AZ124" t="n">
-        <v>0.03628089034171728</v>
+        <v>0.09303195030962198</v>
       </c>
       <c r="BA124" t="n">
-        <v>252.8852866676126</v>
+        <v>271.8744621363487</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="C125" t="n">
         <v>364</v>
@@ -20883,36 +20883,36 @@
         <v>0.06154415627741338</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.436954232466552</v>
+        <v>0.4518238191011079</v>
       </c>
       <c r="AU125" t="n">
-        <v>-0.1988527836991048</v>
+        <v>-0.2098111030225152</v>
       </c>
       <c r="AV125" t="n">
-        <v>0.4800744013747416</v>
+        <v>0.4981620845253432</v>
       </c>
       <c r="AW125" t="n">
-        <v>335.5302708506474</v>
+        <v>335.0915009061138</v>
       </c>
       <c r="AX125" t="n">
-        <v>0.1604197097231753</v>
+        <v>0.175397618588074</v>
       </c>
       <c r="AY125" t="n">
-        <v>0.1030323082127547</v>
+        <v>0.1118506795099167</v>
       </c>
       <c r="AZ125" t="n">
-        <v>0.1906571262851612</v>
+        <v>0.2080261981414783</v>
       </c>
       <c r="BA125" t="n">
-        <v>32.71130031231947</v>
+        <v>32.52556902570233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>365</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>365</v>
+        <v>124</v>
       </c>
       <c r="C126" t="n">
         <v>365</v>
@@ -21046,36 +21046,36 @@
         <v>-0.1535486380607181</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5719966490628776</v>
+        <v>0.5867526590092671</v>
       </c>
       <c r="AU126" t="n">
-        <v>-0.06842794861054931</v>
+        <v>-0.08196772734466777</v>
       </c>
       <c r="AV126" t="n">
-        <v>0.5760751259082523</v>
+        <v>0.5924503280280087</v>
       </c>
       <c r="AW126" t="n">
-        <v>353.178127039811</v>
+        <v>352.047403689405</v>
       </c>
       <c r="AX126" t="n">
-        <v>0.1438480887987192</v>
+        <v>0.1587041621727445</v>
       </c>
       <c r="AY126" t="n">
-        <v>0.0334363172640476</v>
+        <v>0.008329525429860858</v>
       </c>
       <c r="AZ126" t="n">
-        <v>0.1476829711348815</v>
+        <v>0.158922597779043</v>
       </c>
       <c r="BA126" t="n">
-        <v>13.08557238838113</v>
+        <v>3.004389774871938</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>366</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>366</v>
+        <v>125</v>
       </c>
       <c r="C127" t="n">
         <v>366</v>
@@ -21209,36 +21209,36 @@
         <v>-0.1074111187684215</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.8554904427097859</v>
+        <v>0.8700080217467642</v>
       </c>
       <c r="AU127" t="n">
-        <v>0.3328530475714892</v>
+        <v>0.3113708351495759</v>
       </c>
       <c r="AV127" t="n">
-        <v>0.9179624441366943</v>
+        <v>0.9240485673845625</v>
       </c>
       <c r="AW127" t="n">
-        <v>21.2599480169578</v>
+        <v>19.69199456866692</v>
       </c>
       <c r="AX127" t="n">
-        <v>0.1090593772134114</v>
+        <v>0.1236596820194633</v>
       </c>
       <c r="AY127" t="n">
-        <v>-0.1806912187931086</v>
+        <v>-0.3101763159381092</v>
       </c>
       <c r="AZ127" t="n">
-        <v>0.2110527524272456</v>
+        <v>0.3339177502411222</v>
       </c>
       <c r="BA127" t="n">
-        <v>301.1138230842392</v>
+        <v>291.7359561857484</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="C128" t="n">
         <v>367</v>
@@ -21372,36 +21372,36 @@
         <v>0.2907418485950509</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5256233969364683</v>
+        <v>0.540418408853711</v>
       </c>
       <c r="AU128" t="n">
-        <v>-0.1829607809461234</v>
+        <v>-0.1942336458852812</v>
       </c>
       <c r="AV128" t="n">
-        <v>0.5565560194369005</v>
+        <v>0.5742636727339329</v>
       </c>
       <c r="AW128" t="n">
-        <v>340.8078410407816</v>
+        <v>340.2308801977772</v>
       </c>
       <c r="AX128" t="n">
-        <v>0.1495387449247145</v>
+        <v>0.1644366563232555</v>
       </c>
       <c r="AY128" t="n">
-        <v>0.09455217726988357</v>
+        <v>0.09923683595385598</v>
       </c>
       <c r="AZ128" t="n">
-        <v>0.17692357236992</v>
+        <v>0.1920608329485868</v>
       </c>
       <c r="BA128" t="n">
-        <v>32.30484699130966</v>
+        <v>31.1108060007039</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="C129" t="n">
         <v>368</v>
@@ -21535,36 +21535,36 @@
         <v>0.1514170923529998</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.7502413117468923</v>
+        <v>0.7648474099916014</v>
       </c>
       <c r="AU129" t="n">
-        <v>-0.2080323419935249</v>
+        <v>-0.2188089730891589</v>
       </c>
       <c r="AV129" t="n">
-        <v>0.7785496009677281</v>
+        <v>0.7955305948077629</v>
       </c>
       <c r="AW129" t="n">
-        <v>344.5019847892849</v>
+        <v>344.0351347662765</v>
       </c>
       <c r="AX129" t="n">
-        <v>0.1219749391894622</v>
+        <v>0.1366701999349741</v>
       </c>
       <c r="AY129" t="n">
-        <v>0.1079306119410118</v>
+        <v>0.1191367034327248</v>
       </c>
       <c r="AZ129" t="n">
-        <v>0.1628708162447597</v>
+        <v>0.1813071914047615</v>
       </c>
       <c r="BA129" t="n">
-        <v>41.50429502470306</v>
+        <v>41.07896987313402</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>369</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>369</v>
+        <v>128</v>
       </c>
       <c r="C130" t="n">
         <v>369</v>
@@ -21698,36 +21698,36 @@
         <v>0.09247394114968156</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.4279225463940934</v>
+        <v>0.4427997290789758</v>
       </c>
       <c r="AU130" t="n">
-        <v>-0.2210356664472172</v>
+        <v>-0.2315549266651445</v>
       </c>
       <c r="AV130" t="n">
-        <v>0.4816372821472301</v>
+        <v>0.4996891875309239</v>
       </c>
       <c r="AW130" t="n">
-        <v>332.6822014991541</v>
+        <v>332.3934130827233</v>
       </c>
       <c r="AX130" t="n">
-        <v>0.1615280257743378</v>
+        <v>0.1765140830412999</v>
       </c>
       <c r="AY130" t="n">
-        <v>0.114869315374049</v>
+        <v>0.1294577374091883</v>
       </c>
       <c r="AZ130" t="n">
-        <v>0.1982076252949363</v>
+        <v>0.2188984405769426</v>
       </c>
       <c r="BA130" t="n">
-        <v>35.41821938642245</v>
+        <v>36.25680891247587</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="C131" t="n">
         <v>373</v>
@@ -21861,36 +21861,36 @@
         <v>-0.07087362489457655</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.3179900647556435</v>
+        <v>0.3329597055548068</v>
       </c>
       <c r="AU131" t="n">
-        <v>-0.1292771758799277</v>
+        <v>-0.1416125842173943</v>
       </c>
       <c r="AV131" t="n">
-        <v>0.3432641395292962</v>
+        <v>0.361823561327717</v>
       </c>
       <c r="AW131" t="n">
-        <v>337.876059950646</v>
+        <v>336.9592479646493</v>
       </c>
       <c r="AX131" t="n">
-        <v>0.1750183013404424</v>
+        <v>0.1901035398735646</v>
       </c>
       <c r="AY131" t="n">
-        <v>0.06590607095321348</v>
+        <v>0.05662693924317833</v>
       </c>
       <c r="AZ131" t="n">
-        <v>0.1870160848498971</v>
+        <v>0.1983581763389414</v>
       </c>
       <c r="BA131" t="n">
-        <v>20.63470494167949</v>
+        <v>16.5874362495727</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>376</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>376</v>
+        <v>130</v>
       </c>
       <c r="C132" t="n">
         <v>376</v>
@@ -22024,36 +22024,36 @@
         <v>-0.03446073901760624</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.6846448065573973</v>
+        <v>0.6993060743851345</v>
       </c>
       <c r="AU132" t="n">
-        <v>0.0008267893616082395</v>
+        <v>-0.01408372750649338</v>
       </c>
       <c r="AV132" t="n">
-        <v>0.6846453057800547</v>
+        <v>0.6994478801543574</v>
       </c>
       <c r="AW132" t="n">
-        <v>0.06919137848533589</v>
+        <v>358.8462432927155</v>
       </c>
       <c r="AX132" t="n">
-        <v>0.1300245612664934</v>
+        <v>0.1447790032871244</v>
       </c>
       <c r="AY132" t="n">
-        <v>-0.003518700649471619</v>
+        <v>-0.04663953315105897</v>
       </c>
       <c r="AZ132" t="n">
-        <v>0.1300721637661367</v>
+        <v>0.1521059033876132</v>
       </c>
       <c r="BA132" t="n">
-        <v>358.44985054186</v>
+        <v>342.1440215070522</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="C133" t="n">
         <v>377</v>
@@ -22187,36 +22187,36 @@
         <v>-0.1532037946265262</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.686365902303605</v>
+        <v>1.700184678065597</v>
       </c>
       <c r="AU133" t="n">
-        <v>0.1610910370811012</v>
+        <v>0.1430084583108731</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.694042584671388</v>
+        <v>1.706188547223744</v>
       </c>
       <c r="AW133" t="n">
-        <v>5.456653715643099</v>
+        <v>4.808029938612532</v>
       </c>
       <c r="AX133" t="n">
-        <v>0.007099167237454407</v>
+        <v>0.02094985483414577</v>
       </c>
       <c r="AY133" t="n">
-        <v>-0.08903729935894317</v>
+        <v>-0.1738449068088377</v>
       </c>
       <c r="AZ133" t="n">
-        <v>0.08931986818507631</v>
+        <v>0.1751026785658781</v>
       </c>
       <c r="BA133" t="n">
-        <v>274.5586922720024</v>
+        <v>276.8715144021083</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C134" t="n">
         <v>378</v>
@@ -22350,36 +22350,36 @@
         <v>-0.07567875944463494</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.002043653382297</v>
+        <v>1.016437974640513</v>
       </c>
       <c r="AU134" t="n">
-        <v>0.4054658739089761</v>
+        <v>0.3825464577232263</v>
       </c>
       <c r="AV134" t="n">
-        <v>1.080969036646522</v>
+        <v>1.086042332788136</v>
       </c>
       <c r="AW134" t="n">
-        <v>22.03017270751278</v>
+        <v>20.62432322748271</v>
       </c>
       <c r="AX134" t="n">
-        <v>0.09107521850432562</v>
+        <v>0.1055433027621128</v>
       </c>
       <c r="AY134" t="n">
-        <v>-0.2194381461027159</v>
+        <v>-0.3678107655302246</v>
       </c>
       <c r="AZ134" t="n">
-        <v>0.2375874478810014</v>
+        <v>0.3826540839947548</v>
       </c>
       <c r="BA134" t="n">
-        <v>292.5403183357321</v>
+        <v>286.0108327556685</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="C135" t="n">
         <v>379</v>
@@ -22513,36 +22513,36 @@
         <v>-0.02183669343089961</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.732344894549602</v>
+        <v>1.746124999930864</v>
       </c>
       <c r="AU135" t="n">
-        <v>0.2779283310671027</v>
+        <v>0.2575332269877412</v>
       </c>
       <c r="AV135" t="n">
-        <v>1.754497931284565</v>
+        <v>1.76501441308174</v>
       </c>
       <c r="AW135" t="n">
-        <v>9.114563204914083</v>
+        <v>8.389977963741673</v>
       </c>
       <c r="AX135" t="n">
-        <v>0.001456892393789377</v>
+        <v>0.01526609766787912</v>
       </c>
       <c r="AY135" t="n">
-        <v>-0.1513828430523674</v>
+        <v>-0.2665813208883289</v>
       </c>
       <c r="AZ135" t="n">
-        <v>0.1513898533788338</v>
+        <v>0.2670180787597938</v>
       </c>
       <c r="BA135" t="n">
-        <v>270.5513914703517</v>
+        <v>273.2775315614999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="C136" t="n">
         <v>380</v>
@@ -22676,36 +22676,36 @@
         <v>-0.200503085512137</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.989207416957274</v>
+        <v>2.002771489514595</v>
       </c>
       <c r="AU136" t="n">
-        <v>1.145874082878804</v>
+        <v>1.108299990399901</v>
       </c>
       <c r="AV136" t="n">
-        <v>2.29564229824491</v>
+        <v>2.288978485685903</v>
       </c>
       <c r="AW136" t="n">
-        <v>29.9439021976477</v>
+        <v>28.95940265802437</v>
       </c>
       <c r="AX136" t="n">
-        <v>-0.03006378428192244</v>
+        <v>-0.01648632079899195</v>
       </c>
       <c r="AY136" t="n">
-        <v>-0.6145273403871115</v>
+        <v>-0.9554895786248438</v>
       </c>
       <c r="AZ136" t="n">
-        <v>0.6152622881410877</v>
+        <v>0.9556317981493546</v>
       </c>
       <c r="BA136" t="n">
-        <v>267.1992202582917</v>
+        <v>269.0114985026873</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="C137" t="n">
         <v>383</v>
@@ -22839,36 +22839,36 @@
         <v>-0.01230093523001774</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.340927751952968</v>
+        <v>1.355037056587829</v>
       </c>
       <c r="AU137" t="n">
-        <v>0.2078159296121233</v>
+        <v>0.1888085391412966</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.356935774662232</v>
+        <v>1.368127950587546</v>
       </c>
       <c r="AW137" t="n">
-        <v>8.809569997893266</v>
+        <v>7.932422345164474</v>
       </c>
       <c r="AX137" t="n">
-        <v>0.0494893304523786</v>
+        <v>0.06365167291777807</v>
       </c>
       <c r="AY137" t="n">
-        <v>-0.1139701673626511</v>
+        <v>-0.2109315153201213</v>
       </c>
       <c r="AZ137" t="n">
-        <v>0.1242513294789856</v>
+        <v>0.2203262118325334</v>
       </c>
       <c r="BA137" t="n">
-        <v>293.4719592347875</v>
+        <v>286.7919573445639</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="C138" t="n">
         <v>384</v>
@@ -23002,36 +23002,36 @@
         <v>0.1497089570684688</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.345714064077205</v>
+        <v>1.359819343210351</v>
       </c>
       <c r="AU138" t="n">
-        <v>-0.523989193714301</v>
+        <v>-0.5285121861704957</v>
       </c>
       <c r="AV138" t="n">
-        <v>1.444129847826902</v>
+        <v>1.458915274133405</v>
       </c>
       <c r="AW138" t="n">
-        <v>338.7252393991006</v>
+        <v>338.7607112276905</v>
       </c>
       <c r="AX138" t="n">
-        <v>0.04890198203142965</v>
+        <v>0.06306000627814029</v>
       </c>
       <c r="AY138" t="n">
-        <v>0.2765283347413579</v>
+        <v>0.3699188332888039</v>
       </c>
       <c r="AZ138" t="n">
-        <v>0.2808190231473479</v>
+        <v>0.3752552566101492</v>
       </c>
       <c r="BA138" t="n">
-        <v>79.97135208262081</v>
+        <v>80.32579270486089</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="C139" t="n">
         <v>387</v>
@@ -23165,36 +23165,36 @@
         <v>-0.07543499698058755</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.095253570487586</v>
+        <v>1.109569498053243</v>
       </c>
       <c r="AU139" t="n">
-        <v>1.371190230856792</v>
+        <v>1.329156523840617</v>
       </c>
       <c r="AV139" t="n">
-        <v>1.754919665643675</v>
+        <v>1.7314160493302</v>
       </c>
       <c r="AW139" t="n">
-        <v>51.38349676743807</v>
+        <v>50.14513432805479</v>
       </c>
       <c r="AX139" t="n">
-        <v>0.07963703891897259</v>
+        <v>0.09402102903588895</v>
       </c>
       <c r="AY139" t="n">
-        <v>-0.7347582809485965</v>
+        <v>-1.134328123106934</v>
       </c>
       <c r="AZ139" t="n">
-        <v>0.7390614246396023</v>
+        <v>1.138218012848271</v>
       </c>
       <c r="BA139" t="n">
-        <v>276.1858763350145</v>
+        <v>274.7382427940887</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="C140" t="n">
         <v>388</v>
@@ -23328,36 +23328,36 @@
         <v>0.4651515728882888</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6784612741398997</v>
+        <v>0.6931277425938611</v>
       </c>
       <c r="AU140" t="n">
-        <v>-0.4829030191894046</v>
+        <v>-0.4882392179019481</v>
       </c>
       <c r="AV140" t="n">
-        <v>0.8327694917861596</v>
+        <v>0.847822859712315</v>
       </c>
       <c r="AW140" t="n">
-        <v>324.558180298228</v>
+        <v>324.8391317348115</v>
       </c>
       <c r="AX140" t="n">
-        <v>0.1307833684455975</v>
+        <v>0.1455433892593692</v>
       </c>
       <c r="AY140" t="n">
-        <v>0.254604342823636</v>
+        <v>0.3373078033368473</v>
       </c>
       <c r="AZ140" t="n">
-        <v>0.2862300837554161</v>
+        <v>0.3673682516890015</v>
       </c>
       <c r="BA140" t="n">
-        <v>62.811659741871</v>
+        <v>66.66050793930923</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="C141" t="n">
         <v>389</v>
@@ -23491,36 +23491,36 @@
         <v>0.1844935712429421</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.140828087492537</v>
+        <v>1.15510568485916</v>
       </c>
       <c r="AU141" t="n">
-        <v>-0.5152606969154799</v>
+        <v>-0.5199564498753574</v>
       </c>
       <c r="AV141" t="n">
-        <v>1.25179164040894</v>
+        <v>1.266737483838279</v>
       </c>
       <c r="AW141" t="n">
-        <v>335.6934479340704</v>
+        <v>335.7657008599265</v>
       </c>
       <c r="AX141" t="n">
-        <v>0.07404439892735544</v>
+        <v>0.08838727163989943</v>
       </c>
       <c r="AY141" t="n">
-        <v>0.2718707219194278</v>
+        <v>0.3629908271204655</v>
       </c>
       <c r="AZ141" t="n">
-        <v>0.2817734239588684</v>
+        <v>0.3735969089293232</v>
       </c>
       <c r="BA141" t="n">
-        <v>74.76492284620058</v>
+        <v>76.31495262820056</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C142" t="n">
         <v>390</v>
@@ -23654,36 +23654,36 @@
         <v>-0.2130001698783307</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.158936598593778</v>
+        <v>1.173198965895875</v>
       </c>
       <c r="AU142" t="n">
-        <v>-0.0683318909799724</v>
+        <v>-0.08187357095379152</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.160949304183871</v>
+        <v>1.176052335229974</v>
       </c>
       <c r="AW142" t="n">
-        <v>356.6256984416609</v>
+        <v>356.0079943451377</v>
       </c>
       <c r="AX142" t="n">
-        <v>0.07182222763451562</v>
+        <v>0.08614876281849182</v>
       </c>
       <c r="AY142" t="n">
-        <v>0.03338505995570103</v>
+        <v>0.008253282306618532</v>
       </c>
       <c r="AZ142" t="n">
-        <v>0.07920223867183258</v>
+        <v>0.08654320310682695</v>
       </c>
       <c r="BA142" t="n">
-        <v>24.93037514392311</v>
+        <v>5.47238783909224</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="C143" t="n">
         <v>394</v>
@@ -23817,36 +23817,36 @@
         <v>-0.06328418713378944</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.153614343009269</v>
+        <v>1.167881186565406</v>
       </c>
       <c r="AU143" t="n">
-        <v>0.438757513245489</v>
+        <v>0.4151791656867013</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.234234259703592</v>
+        <v>1.239483846427103</v>
       </c>
       <c r="AW143" t="n">
-        <v>20.82345728510806</v>
+        <v>19.57018685080287</v>
       </c>
       <c r="AX143" t="n">
-        <v>0.0724753439236975</v>
+        <v>0.0868066808554359</v>
       </c>
       <c r="AY143" t="n">
-        <v>-0.2372028964154796</v>
+        <v>-0.394235095858055</v>
       </c>
       <c r="AZ143" t="n">
-        <v>0.248028001533599</v>
+        <v>0.4036789697858278</v>
       </c>
       <c r="BA143" t="n">
-        <v>286.9900900797143</v>
+        <v>282.4178093810934</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="C144" t="n">
         <v>397</v>
@@ -23980,36 +23980,36 @@
         <v>-0.07063878520670769</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5465470500764477</v>
+        <v>0.561324464269302</v>
       </c>
       <c r="AU144" t="n">
-        <v>0.1959161723617992</v>
+        <v>0.1771443101959778</v>
       </c>
       <c r="AV144" t="n">
-        <v>0.5806004000516751</v>
+        <v>0.5886129974966809</v>
       </c>
       <c r="AW144" t="n">
-        <v>19.72081104925694</v>
+        <v>17.51479665921755</v>
       </c>
       <c r="AX144" t="n">
-        <v>0.1469711157535998</v>
+        <v>0.1618501497977849</v>
       </c>
       <c r="AY144" t="n">
-        <v>-0.1076203383801337</v>
+        <v>-0.2014864076994013</v>
       </c>
       <c r="AZ144" t="n">
-        <v>0.1821610444055274</v>
+        <v>0.2584419537868702</v>
       </c>
       <c r="BA144" t="n">
-        <v>323.786359331978</v>
+        <v>308.7742422258665</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="C145" t="n">
         <v>400</v>
@@ -24143,36 +24143,36 @@
         <v>-0.4920548088266564</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.643059897379359</v>
+        <v>1.65691509542067</v>
       </c>
       <c r="AU145" t="n">
-        <v>0.926145437900272</v>
+        <v>0.8929203681975668</v>
       </c>
       <c r="AV145" t="n">
-        <v>1.886104768701823</v>
+        <v>1.882199356437826</v>
       </c>
       <c r="AW145" t="n">
-        <v>29.40870098864515</v>
+        <v>28.32046395074608</v>
       </c>
       <c r="AX145" t="n">
-        <v>0.01241342860395866</v>
+        <v>0.0263031869496835</v>
       </c>
       <c r="AY145" t="n">
-        <v>-0.4972779470739859</v>
+        <v>-0.7810859621879888</v>
       </c>
       <c r="AZ145" t="n">
-        <v>0.4974328596462276</v>
+        <v>0.7815287185835503</v>
       </c>
       <c r="BA145" t="n">
-        <v>271.4299636540205</v>
+        <v>271.9287151261232</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="C146" t="n">
         <v>404</v>
@@ -24306,36 +24306,36 @@
         <v>-0.1388771058043023</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.8167334335360744</v>
+        <v>0.8312836089442976</v>
       </c>
       <c r="AU146" t="n">
-        <v>0.7651970485685448</v>
+        <v>0.735157581776486</v>
       </c>
       <c r="AV146" t="n">
-        <v>1.119187216060672</v>
+        <v>1.109724789550502</v>
       </c>
       <c r="AW146" t="n">
-        <v>43.13406884574939</v>
+        <v>41.48839816131103</v>
       </c>
       <c r="AX146" t="n">
-        <v>0.1138154122458139</v>
+        <v>0.128450683689434</v>
       </c>
       <c r="AY146" t="n">
-        <v>-0.4113942835866263</v>
+        <v>-0.6533375697929842</v>
       </c>
       <c r="AZ146" t="n">
-        <v>0.4268479877338513</v>
+        <v>0.6658449956583631</v>
       </c>
       <c r="BA146" t="n">
-        <v>285.4645172543449</v>
+        <v>281.1228788886593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="C147" t="n">
         <v>410</v>
@@ -24469,36 +24469,36 @@
         <v>-0.09909094129389261</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.7814754155173194</v>
+        <v>0.7960552444893546</v>
       </c>
       <c r="AU147" t="n">
-        <v>0.3504501343314311</v>
+        <v>0.3286196280804579</v>
       </c>
       <c r="AV147" t="n">
-        <v>0.856457308749762</v>
+        <v>0.8612170529191492</v>
       </c>
       <c r="AW147" t="n">
-        <v>24.15369574253472</v>
+        <v>22.43132857611752</v>
       </c>
       <c r="AX147" t="n">
-        <v>0.1181420714087717</v>
+        <v>0.1328091526943718</v>
       </c>
       <c r="AY147" t="n">
-        <v>-0.1900811995436075</v>
+        <v>-0.32414352339978</v>
       </c>
       <c r="AZ147" t="n">
-        <v>0.2238044044622269</v>
+        <v>0.3502960102562127</v>
       </c>
       <c r="BA147" t="n">
-        <v>301.8623875674871</v>
+        <v>292.2800553844</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="C148" t="n">
         <v>411</v>
@@ -24632,36 +24632,36 @@
         <v>-0.07573782866749063</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.39227139463078</v>
+        <v>0.4071785615224668</v>
       </c>
       <c r="AU148" t="n">
-        <v>-0.1409457568257373</v>
+        <v>-0.1530502124610463</v>
       </c>
       <c r="AV148" t="n">
-        <v>0.4168243675851461</v>
+        <v>0.4349928143060258</v>
       </c>
       <c r="AW148" t="n">
-        <v>340.2362949665797</v>
+        <v>339.3997715322795</v>
       </c>
       <c r="AX148" t="n">
-        <v>0.1659029280267754</v>
+        <v>0.1809211498216301</v>
       </c>
       <c r="AY148" t="n">
-        <v>0.07213254195727828</v>
+        <v>0.0658885569800656</v>
       </c>
       <c r="AZ148" t="n">
-        <v>0.1809057355007738</v>
+        <v>0.1925454865575822</v>
       </c>
       <c r="BA148" t="n">
-        <v>23.49880794677239</v>
+        <v>20.01080572132465</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>412</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>412</v>
+        <v>147</v>
       </c>
       <c r="C149" t="n">
         <v>412</v>
@@ -24795,36 +24795,36 @@
         <v>-0.2207530999641087</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.888214245031158</v>
+        <v>0.9027043018926186</v>
       </c>
       <c r="AU149" t="n">
-        <v>0.126723847311315</v>
+        <v>0.1093214879593485</v>
       </c>
       <c r="AV149" t="n">
-        <v>0.8972087151569871</v>
+        <v>0.9092998649428503</v>
       </c>
       <c r="AW149" t="n">
-        <v>8.119740764573065</v>
+        <v>6.905146008037594</v>
       </c>
       <c r="AX149" t="n">
-        <v>0.1050437022799745</v>
+        <v>0.1196144836176261</v>
       </c>
       <c r="AY149" t="n">
-        <v>-0.0706986246232109</v>
+        <v>-0.146566887672061</v>
       </c>
       <c r="AZ149" t="n">
-        <v>0.1266194096981091</v>
+        <v>0.189181070017552</v>
       </c>
       <c r="BA149" t="n">
-        <v>326.0578647311063</v>
+        <v>309.2181768880057</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="C150" t="n">
         <v>413</v>
@@ -24958,36 +24958,36 @@
         <v>-0.1266027323344852</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.9076014063292775</v>
+        <v>0.9220751577244359</v>
       </c>
       <c r="AU150" t="n">
-        <v>0.4592887119776243</v>
+        <v>0.4353039965967558</v>
       </c>
       <c r="AV150" t="n">
-        <v>1.017195376376115</v>
+        <v>1.019662770697083</v>
       </c>
       <c r="AW150" t="n">
-        <v>26.84154137166895</v>
+        <v>25.27160548617709</v>
       </c>
       <c r="AX150" t="n">
-        <v>0.1026646224624524</v>
+        <v>0.1172179126712208</v>
       </c>
       <c r="AY150" t="n">
-        <v>-0.2481585485361636</v>
+        <v>-0.4105311746374878</v>
       </c>
       <c r="AZ150" t="n">
-        <v>0.2685566791515961</v>
+        <v>0.4269377992169743</v>
       </c>
       <c r="BA150" t="n">
-        <v>292.4751617671782</v>
+        <v>285.9354975580431</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="C151" t="n">
         <v>419</v>
@@ -25121,36 +25121,36 @@
         <v>-0.1148714128587809</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.727179546108757</v>
+        <v>1.740963995778162</v>
       </c>
       <c r="AU151" t="n">
-        <v>-0.1637952033847323</v>
+        <v>-0.1754474068181571</v>
       </c>
       <c r="AV151" t="n">
-        <v>1.734928832300708</v>
+        <v>1.749782108479533</v>
       </c>
       <c r="AW151" t="n">
-        <v>354.5826183365691</v>
+        <v>354.2453883164853</v>
       </c>
       <c r="AX151" t="n">
-        <v>0.002090753949749891</v>
+        <v>0.01590461940971816</v>
       </c>
       <c r="AY151" t="n">
-        <v>0.08432523420659609</v>
+        <v>0.08402468171636809</v>
       </c>
       <c r="AZ151" t="n">
-        <v>0.08435114922794874</v>
+        <v>0.08551668875783806</v>
       </c>
       <c r="BA151" t="n">
-        <v>88.57970344596366</v>
+        <v>79.28157225263982</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="C152" t="n">
         <v>420</v>
@@ -25284,36 +25284,36 @@
         <v>-0.03435510406910313</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.749236197028911</v>
+        <v>1.763002096072322</v>
       </c>
       <c r="AU152" t="n">
-        <v>0.2809539772426133</v>
+        <v>0.2604989874613612</v>
       </c>
       <c r="AV152" t="n">
-        <v>1.771655274122088</v>
+        <v>1.782143684786329</v>
       </c>
       <c r="AW152" t="n">
-        <v>9.124643923375622</v>
+        <v>8.405136126923544</v>
       </c>
       <c r="AX152" t="n">
-        <v>-0.0006159101275411138</v>
+        <v>0.01317805578560613</v>
       </c>
       <c r="AY152" t="n">
-        <v>-0.1529973579850629</v>
+        <v>-0.268982844982372</v>
       </c>
       <c r="AZ152" t="n">
-        <v>0.1529985976919224</v>
+        <v>0.2693054623454551</v>
       </c>
       <c r="BA152" t="n">
-        <v>269.7693498717457</v>
+        <v>272.804802480477</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="C153" t="n">
         <v>421</v>
@@ -25447,36 +25447,36 @@
         <v>0.01596205887272671</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.8382739992224585</v>
+        <v>0.8528060580553599</v>
       </c>
       <c r="AU153" t="n">
-        <v>0.5573723077812548</v>
+        <v>0.5314462533812382</v>
       </c>
       <c r="AV153" t="n">
-        <v>1.006661406458903</v>
+        <v>1.004844909868621</v>
       </c>
       <c r="AW153" t="n">
-        <v>33.6201192916793</v>
+        <v>31.93007263814758</v>
       </c>
       <c r="AX153" t="n">
-        <v>0.1111720791505528</v>
+        <v>0.1257879166603006</v>
       </c>
       <c r="AY153" t="n">
-        <v>-0.3004969321049928</v>
+        <v>-0.4883823524980494</v>
       </c>
       <c r="AZ153" t="n">
-        <v>0.3204023055272378</v>
+        <v>0.5043212490162077</v>
       </c>
       <c r="BA153" t="n">
-        <v>290.3024970940286</v>
+        <v>284.4432064288526</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>422</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>422</v>
+        <v>152</v>
       </c>
       <c r="C154" t="n">
         <v>422</v>
@@ -25610,36 +25610,36 @@
         <v>0.03997486191924342</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.7769217599409632</v>
+        <v>0.7915054187401925</v>
       </c>
       <c r="AU154" t="n">
-        <v>-0.3461257899644952</v>
+        <v>-0.3541691791083204</v>
       </c>
       <c r="AV154" t="n">
-        <v>0.8505354099320672</v>
+        <v>0.8671312676436879</v>
       </c>
       <c r="AW154" t="n">
-        <v>335.9865881165497</v>
+        <v>335.8932630373703</v>
       </c>
       <c r="AX154" t="n">
-        <v>0.1187008695696301</v>
+        <v>0.1333720591707981</v>
       </c>
       <c r="AY154" t="n">
-        <v>0.1816186510981088</v>
+        <v>0.2287446097424595</v>
       </c>
       <c r="AZ154" t="n">
-        <v>0.2169682715589608</v>
+        <v>0.2647870892881467</v>
       </c>
       <c r="BA154" t="n">
-        <v>56.83249235972411</v>
+        <v>59.75520656722851</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="C155" t="n">
         <v>430</v>
@@ -25773,36 +25773,36 @@
         <v>-0.02126777586128135</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.03921609945859</v>
+        <v>1.053579157033715</v>
       </c>
       <c r="AU155" t="n">
-        <v>0.1227312455491217</v>
+        <v>0.105407910559235</v>
       </c>
       <c r="AV155" t="n">
-        <v>1.046438273386426</v>
+        <v>1.058838924362122</v>
       </c>
       <c r="AW155" t="n">
-        <v>6.735423231216108</v>
+        <v>5.713285027865366</v>
       </c>
       <c r="AX155" t="n">
-        <v>0.08651363185075943</v>
+        <v>0.100948179066417</v>
       </c>
       <c r="AY155" t="n">
-        <v>-0.06856813255922074</v>
+        <v>-0.1433978689654345</v>
       </c>
       <c r="AZ155" t="n">
-        <v>0.1103911105962233</v>
+        <v>0.1753667120084462</v>
       </c>
       <c r="BA155" t="n">
-        <v>321.6007025112316</v>
+        <v>305.1444980639373</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="C156" t="n">
         <v>441</v>
@@ -25936,36 +25936,36 @@
         <v>0.1440349775076859</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.8442643496261509</v>
+        <v>0.8587913703075075</v>
       </c>
       <c r="AU156" t="n">
-        <v>-0.02254744556240001</v>
+        <v>-0.03699532325084146</v>
       </c>
       <c r="AV156" t="n">
-        <v>0.8445653789678197</v>
+        <v>0.8595878498775333</v>
       </c>
       <c r="AW156" t="n">
-        <v>358.4701871382181</v>
+        <v>357.5333169119107</v>
       </c>
       <c r="AX156" t="n">
-        <v>0.1104369781460189</v>
+        <v>0.1250474111517572</v>
       </c>
       <c r="AY156" t="n">
-        <v>0.008954023897963716</v>
+        <v>-0.02808687196940028</v>
       </c>
       <c r="AZ156" t="n">
-        <v>0.1107993713248841</v>
+        <v>0.1281628940558931</v>
       </c>
       <c r="BA156" t="n">
-        <v>4.635295563715203</v>
+        <v>347.3408987119732</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="C157" t="n">
         <v>443</v>
@@ -26099,36 +26099,36 @@
         <v>0.1171365660658661</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.177556493065169</v>
+        <v>1.191803200206545</v>
       </c>
       <c r="AU157" t="n">
-        <v>-0.1768985552018826</v>
+        <v>-0.1882914079461749</v>
       </c>
       <c r="AV157" t="n">
-        <v>1.190769664205657</v>
+        <v>1.206585480738482</v>
       </c>
       <c r="AW157" t="n">
-        <v>351.4566206983378</v>
+        <v>351.0221221451329</v>
       </c>
       <c r="AX157" t="n">
-        <v>0.06953730234503687</v>
+        <v>0.08384703862952571</v>
       </c>
       <c r="AY157" t="n">
-        <v>0.09131731323698114</v>
+        <v>0.09442510968323024</v>
       </c>
       <c r="AZ157" t="n">
-        <v>0.1147793017675487</v>
+        <v>0.1262791638617838</v>
       </c>
       <c r="BA157" t="n">
-        <v>52.71105819240661</v>
+        <v>48.39575772040595</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>444</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>444</v>
+        <v>156</v>
       </c>
       <c r="C158" t="n">
         <v>444</v>
@@ -26262,36 +26262,36 @@
         <v>-0.09484738733059946</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.019889054354808</v>
+        <v>1.034268366835837</v>
       </c>
       <c r="AU158" t="n">
-        <v>-0.449936047792994</v>
+        <v>-0.4559247518239919</v>
       </c>
       <c r="AV158" t="n">
-        <v>1.114726930820424</v>
+        <v>1.130300152155629</v>
       </c>
       <c r="AW158" t="n">
-        <v>336.1947621318713</v>
+        <v>336.2112216737366</v>
       </c>
       <c r="AX158" t="n">
-        <v>0.08888533455811799</v>
+        <v>0.1033373186657293</v>
       </c>
       <c r="AY158" t="n">
-        <v>0.2370128385571897</v>
+        <v>0.3111411693275852</v>
       </c>
       <c r="AZ158" t="n">
-        <v>0.2531317608291087</v>
+        <v>0.3278527545706449</v>
       </c>
       <c r="BA158" t="n">
-        <v>69.44278487317457</v>
+        <v>71.62745624751899</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>445</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>445</v>
+        <v>157</v>
       </c>
       <c r="C159" t="n">
         <v>445</v>
@@ -26425,36 +26425,36 @@
         <v>0.5169217106181154</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.9576366459346679</v>
+        <v>0.9720683154643708</v>
       </c>
       <c r="AU159" t="n">
-        <v>0.2863692710785835</v>
+        <v>0.2658070980202728</v>
       </c>
       <c r="AV159" t="n">
-        <v>0.9995375455955018</v>
+        <v>1.007755041310982</v>
       </c>
       <c r="AW159" t="n">
-        <v>16.64863723177919</v>
+        <v>15.29338079129356</v>
       </c>
       <c r="AX159" t="n">
-        <v>0.09652458850494826</v>
+        <v>0.1110327368380605</v>
       </c>
       <c r="AY159" t="n">
-        <v>-0.1558870127086965</v>
+        <v>-0.2732810867029892</v>
       </c>
       <c r="AZ159" t="n">
-        <v>0.1833514573634224</v>
+        <v>0.2949759668164794</v>
       </c>
       <c r="BA159" t="n">
-        <v>301.7656189518337</v>
+        <v>292.1116609655184</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="C160" t="n">
         <v>446</v>
@@ -26588,36 +26588,36 @@
         <v>-0.439887214752376</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.314539708692271</v>
+        <v>1.328671206847037</v>
       </c>
       <c r="AU160" t="n">
-        <v>0.418332329523651</v>
+        <v>0.3951582514638309</v>
       </c>
       <c r="AV160" t="n">
-        <v>1.379498671131453</v>
+        <v>1.386188017407564</v>
       </c>
       <c r="AW160" t="n">
-        <v>17.65288264803701</v>
+        <v>16.56293081057841</v>
       </c>
       <c r="AX160" t="n">
-        <v>0.05272751783732146</v>
+        <v>0.06691366763885195</v>
       </c>
       <c r="AY160" t="n">
-        <v>-0.2263038149601299</v>
+        <v>-0.3780231636003206</v>
       </c>
       <c r="AZ160" t="n">
-        <v>0.2323652465468831</v>
+        <v>0.3838996628486114</v>
       </c>
       <c r="BA160" t="n">
-        <v>283.115603266517</v>
+        <v>280.0379184095374</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>456</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>456</v>
+        <v>159</v>
       </c>
       <c r="C161" t="n">
         <v>456</v>
@@ -26751,36 +26751,36 @@
         <v>-0.193859296021107</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.2952914005304598</v>
+        <v>0.3102801319174063</v>
       </c>
       <c r="AU161" t="n">
-        <v>0.1663811245974931</v>
+        <v>0.1481938407211141</v>
       </c>
       <c r="AV161" t="n">
-        <v>0.3389390650980895</v>
+        <v>0.3438534203557644</v>
       </c>
       <c r="AW161" t="n">
-        <v>29.39896489470429</v>
+        <v>25.52974984641867</v>
       </c>
       <c r="AX161" t="n">
-        <v>0.177803749561172</v>
+        <v>0.1929094668665774</v>
       </c>
       <c r="AY161" t="n">
-        <v>-0.09186014274347729</v>
+        <v>-0.1780437694296687</v>
       </c>
       <c r="AZ161" t="n">
-        <v>0.2001311049858666</v>
+        <v>0.2625140876971599</v>
       </c>
       <c r="BA161" t="n">
-        <v>332.6774129631667</v>
+        <v>317.2948612558546</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>458</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>458</v>
+        <v>160</v>
       </c>
       <c r="C162" t="n">
         <v>458</v>
@@ -26914,36 +26914,36 @@
         <v>-0.3238266939236703</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.574977980540619</v>
+        <v>2.588049393959323</v>
       </c>
       <c r="AU162" t="n">
-        <v>-1.183155215167538</v>
+        <v>-1.174631533436687</v>
       </c>
       <c r="AV162" t="n">
-        <v>2.833790370413307</v>
+        <v>2.842139846122467</v>
       </c>
       <c r="AW162" t="n">
-        <v>335.3220854891322</v>
+        <v>335.5882455544454</v>
       </c>
       <c r="AX162" t="n">
-        <v>-0.1019461451954218</v>
+        <v>-0.08889716488061078</v>
       </c>
       <c r="AY162" t="n">
-        <v>0.6282658886482227</v>
+        <v>0.8931138768161055</v>
       </c>
       <c r="AZ162" t="n">
-        <v>0.636483340991064</v>
+        <v>0.897527215679449</v>
       </c>
       <c r="BA162" t="n">
-        <v>99.21681925361767</v>
+        <v>95.68428147224331</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>460</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>460</v>
+        <v>161</v>
       </c>
       <c r="C163" t="n">
         <v>460</v>
@@ -27077,36 +27077,36 @@
         <v>0.1135341386573467</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.6342067633415785</v>
+        <v>0.6489104518105515</v>
       </c>
       <c r="AU163" t="n">
-        <v>0.2640755611928431</v>
+        <v>0.2439546408081132</v>
       </c>
       <c r="AV163" t="n">
-        <v>0.6869891707207008</v>
+        <v>0.6932522205090941</v>
       </c>
       <c r="AW163" t="n">
-        <v>22.60621868601809</v>
+        <v>20.60349970378125</v>
       </c>
       <c r="AX163" t="n">
-        <v>0.1362140249432463</v>
+        <v>0.1510139722496147</v>
       </c>
       <c r="AY163" t="n">
-        <v>-0.1439908670829987</v>
+        <v>-0.2555860627872542</v>
       </c>
       <c r="AZ163" t="n">
-        <v>0.1982110753579454</v>
+        <v>0.2968660561696093</v>
       </c>
       <c r="BA163" t="n">
-        <v>313.4102137786527</v>
+        <v>300.5768747420486</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="C164" t="n">
         <v>468</v>
@@ -27240,36 +27240,36 @@
         <v>-0.1380192619435805</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.8821467804212848</v>
+        <v>0.8966419402907732</v>
       </c>
       <c r="AU164" t="n">
-        <v>-0.3444069039645448</v>
+        <v>-0.3524843145003655</v>
       </c>
       <c r="AV164" t="n">
-        <v>0.9469947506222417</v>
+        <v>0.9634375750702248</v>
       </c>
       <c r="AW164" t="n">
-        <v>338.6733795366708</v>
+        <v>338.5394151787962</v>
       </c>
       <c r="AX164" t="n">
-        <v>0.1057882662919466</v>
+        <v>0.1203645217061716</v>
       </c>
       <c r="AY164" t="n">
-        <v>0.1807014364095629</v>
+        <v>0.2273802908815148</v>
       </c>
       <c r="AZ164" t="n">
-        <v>0.2093899864022516</v>
+        <v>0.2572730354446764</v>
       </c>
       <c r="BA164" t="n">
-        <v>59.65396085590023</v>
+        <v>62.10534265376687</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>469</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>469</v>
+        <v>163</v>
       </c>
       <c r="C165" t="n">
         <v>469</v>
@@ -27403,36 +27403,36 @@
         <v>-0.01795334808866766</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.7810019567063488</v>
+        <v>0.7955821838783356</v>
       </c>
       <c r="AU165" t="n">
-        <v>-0.1277878758570747</v>
+        <v>-0.1401527614605601</v>
       </c>
       <c r="AV165" t="n">
-        <v>0.7913872614562408</v>
+        <v>0.8078327845845589</v>
       </c>
       <c r="AW165" t="n">
-        <v>350.7075805343685</v>
+        <v>350.0090692405214</v>
       </c>
       <c r="AX165" t="n">
-        <v>0.1182001715238059</v>
+        <v>0.1328676799647258</v>
       </c>
       <c r="AY165" t="n">
-        <v>0.06511136562857184</v>
+        <v>0.05544484798707276</v>
       </c>
       <c r="AZ165" t="n">
-        <v>0.1349472877914732</v>
+        <v>0.1439720512721772</v>
       </c>
       <c r="BA165" t="n">
-        <v>28.84846897897368</v>
+        <v>22.65047075429758</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>470</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>470</v>
+        <v>164</v>
       </c>
       <c r="C166" t="n">
         <v>470</v>
@@ -27566,36 +27566,36 @@
         <v>0.02234287161037602</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.050083165324594</v>
+        <v>1.064437083213224</v>
       </c>
       <c r="AU166" t="n">
-        <v>0.09315400244688253</v>
+        <v>0.07641608090603125</v>
       </c>
       <c r="AV166" t="n">
-        <v>1.054206963679331</v>
+        <v>1.067176518454428</v>
       </c>
       <c r="AW166" t="n">
-        <v>5.069499366925191</v>
+        <v>4.106227105091773</v>
       </c>
       <c r="AX166" t="n">
-        <v>0.0851800886527668</v>
+        <v>0.09960483158368554</v>
       </c>
       <c r="AY166" t="n">
-        <v>-0.05278542107000549</v>
+        <v>-0.1199217392975593</v>
       </c>
       <c r="AZ166" t="n">
-        <v>0.100209521406057</v>
+        <v>0.1558920973974182</v>
       </c>
       <c r="BA166" t="n">
-        <v>328.2138352804702</v>
+        <v>309.7124099678452</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>473</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>473</v>
+        <v>165</v>
       </c>
       <c r="C167" t="n">
         <v>473</v>
@@ -27729,36 +27729,36 @@
         <v>-0.05520120563842592</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.112053354624212</v>
+        <v>1.12635515282302</v>
       </c>
       <c r="AU167" t="n">
-        <v>1.122729480409374</v>
+        <v>1.08561348206424</v>
       </c>
       <c r="AV167" t="n">
-        <v>1.580248129159236</v>
+        <v>1.564363309059188</v>
       </c>
       <c r="AW167" t="n">
-        <v>45.27371442365688</v>
+        <v>43.94480336274892</v>
       </c>
       <c r="AX167" t="n">
-        <v>0.07757546699704042</v>
+        <v>0.09194430032101393</v>
       </c>
       <c r="AY167" t="n">
-        <v>-0.6021771500044271</v>
+        <v>-0.9371191819382564</v>
       </c>
       <c r="AZ167" t="n">
-        <v>0.6071534180643828</v>
+        <v>0.9416188801835633</v>
       </c>
       <c r="BA167" t="n">
-        <v>277.340698106152</v>
+        <v>275.6035705555179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>474</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>474</v>
+        <v>166</v>
       </c>
       <c r="C168" t="n">
         <v>474</v>
@@ -27892,36 +27892,36 @@
         <v>0.1838824512804482</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.218903869497742</v>
+        <v>1.233115801653614</v>
       </c>
       <c r="AU168" t="n">
-        <v>-1.343027308110412</v>
+        <v>-1.331339326278612</v>
       </c>
       <c r="AV168" t="n">
-        <v>1.813683818477429</v>
+        <v>1.814673243860675</v>
       </c>
       <c r="AW168" t="n">
-        <v>312.2262359991179</v>
+        <v>312.8065345305864</v>
       </c>
       <c r="AX168" t="n">
-        <v>0.06446339248966454</v>
+        <v>0.07873582510297392</v>
       </c>
       <c r="AY168" t="n">
-        <v>0.7135752296632869</v>
+        <v>1.020007988320276</v>
       </c>
       <c r="AZ168" t="n">
-        <v>0.7164810795549937</v>
+        <v>1.023042338513819</v>
       </c>
       <c r="BA168" t="n">
-        <v>84.8379911359272</v>
+        <v>85.58601270345439</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>477</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>477</v>
+        <v>167</v>
       </c>
       <c r="C169" t="n">
         <v>477</v>
@@ -28055,36 +28055,36 @@
         <v>-0.1002548679702276</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.9428626215560105</v>
+        <v>0.9573067166983625</v>
       </c>
       <c r="AU169" t="n">
-        <v>0.6465249465241166</v>
+        <v>0.6188343208435158</v>
       </c>
       <c r="AV169" t="n">
-        <v>1.143234197181612</v>
+        <v>1.139908797443749</v>
       </c>
       <c r="AW169" t="n">
-        <v>34.43859984532807</v>
+        <v>32.87994685063423</v>
       </c>
       <c r="AX169" t="n">
-        <v>0.09833757095670367</v>
+        <v>0.1128590484389656</v>
       </c>
       <c r="AY169" t="n">
-        <v>-0.3480696680397459</v>
+        <v>-0.5591448268816815</v>
       </c>
       <c r="AZ169" t="n">
-        <v>0.3616943069374519</v>
+        <v>0.5704209868536522</v>
       </c>
       <c r="BA169" t="n">
-        <v>285.7761886918937</v>
+        <v>281.4113896898522</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>482</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>482</v>
+        <v>168</v>
       </c>
       <c r="C170" t="n">
         <v>482</v>
@@ -28218,36 +28218,36 @@
         <v>0.173321393858689</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.4472574270785493</v>
+        <v>0.4621183482674545</v>
       </c>
       <c r="AU170" t="n">
-        <v>0.1670700680071878</v>
+        <v>0.1488691480817604</v>
       </c>
       <c r="AV170" t="n">
-        <v>0.4774427857878368</v>
+        <v>0.4855052945705428</v>
       </c>
       <c r="AW170" t="n">
-        <v>20.48284329631425</v>
+        <v>17.85608932881195</v>
       </c>
       <c r="AX170" t="n">
-        <v>0.1591553615300347</v>
+        <v>0.1741239748357693</v>
       </c>
       <c r="AY170" t="n">
-        <v>-0.09222776980831297</v>
+        <v>-0.178590599462607</v>
       </c>
       <c r="AZ170" t="n">
-        <v>0.1839467059437901</v>
+        <v>0.2494268646898745</v>
       </c>
       <c r="BA170" t="n">
-        <v>329.9084525226427</v>
+        <v>314.2744698418068</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="C171" t="n">
         <v>483</v>
@@ -28381,36 +28381,36 @@
         <v>0.2288006437532082</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.389190846078483</v>
+        <v>1.403259559301182</v>
       </c>
       <c r="AU171" t="n">
-        <v>-0.04187860754035783</v>
+        <v>-0.05594386937213334</v>
       </c>
       <c r="AV171" t="n">
-        <v>1.389821939889341</v>
+        <v>1.404374276071188</v>
       </c>
       <c r="AW171" t="n">
-        <v>358.273281888537</v>
+        <v>357.7169932501957</v>
       </c>
       <c r="AX171" t="n">
-        <v>0.04356676389404923</v>
+        <v>0.05768556331636596</v>
       </c>
       <c r="AY171" t="n">
-        <v>0.01926932445504295</v>
+        <v>-0.01274328961939823</v>
       </c>
       <c r="AZ171" t="n">
-        <v>0.04763790277870708</v>
+        <v>0.05907635436831159</v>
       </c>
       <c r="BA171" t="n">
-        <v>23.85952584585594</v>
+        <v>347.5428855358892</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="C172" t="n">
         <v>484</v>
@@ -28544,36 +28544,36 @@
         <v>-0.4304929676663863</v>
       </c>
       <c r="AT172" t="n">
-        <v>2.094881355080644</v>
+        <v>2.108356551148488</v>
       </c>
       <c r="AU172" t="n">
-        <v>0.1364714648475653</v>
+        <v>0.1188761738426368</v>
       </c>
       <c r="AV172" t="n">
-        <v>2.099321879222468</v>
+        <v>2.111705209416838</v>
       </c>
       <c r="AW172" t="n">
-        <v>3.727278240918533</v>
+        <v>3.22711028015964</v>
       </c>
       <c r="AX172" t="n">
-        <v>-0.04303147612506855</v>
+        <v>-0.02954935184331858</v>
       </c>
       <c r="AY172" t="n">
-        <v>-0.0759000504204045</v>
+        <v>-0.1543037931180098</v>
       </c>
       <c r="AZ172" t="n">
-        <v>0.08724978848869658</v>
+        <v>0.1571076852511226</v>
       </c>
       <c r="BA172" t="n">
-        <v>240.4489640659283</v>
+        <v>259.1590437298819</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>488</v>
+        <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>488</v>
+        <v>171</v>
       </c>
       <c r="C173" t="n">
         <v>488</v>
@@ -28707,36 +28707,36 @@
         <v>-0.08799197530617713</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.3738374705236437</v>
+        <v>0.3887601411666909</v>
       </c>
       <c r="AU173" t="n">
-        <v>0.1113663037012497</v>
+        <v>0.09426791157646543</v>
       </c>
       <c r="AV173" t="n">
-        <v>0.3900729521097241</v>
+        <v>0.400026107289179</v>
       </c>
       <c r="AW173" t="n">
-        <v>16.58881123442893</v>
+        <v>13.63020043678889</v>
       </c>
       <c r="AX173" t="n">
-        <v>0.1681650321134255</v>
+        <v>0.1831998850249983</v>
       </c>
       <c r="AY173" t="n">
-        <v>-0.06250368640186088</v>
+        <v>-0.1343772564774401</v>
       </c>
       <c r="AZ173" t="n">
-        <v>0.1794050970277367</v>
+        <v>0.2271991305695872</v>
       </c>
       <c r="BA173" t="n">
-        <v>339.6108743886687</v>
+        <v>323.739924319989</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="C174" t="n">
         <v>493</v>
@@ -28870,36 +28870,36 @@
         <v>-0.0163934642219913</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.2721353060831962</v>
+        <v>0.2871435127771201</v>
       </c>
       <c r="AU174" t="n">
-        <v>-0.03841759510496038</v>
+        <v>-0.052551359711655</v>
       </c>
       <c r="AV174" t="n">
-        <v>0.2748336522892412</v>
+        <v>0.2919127306876627</v>
       </c>
       <c r="AW174" t="n">
-        <v>351.9646003611921</v>
+        <v>349.6288298320944</v>
       </c>
       <c r="AX174" t="n">
-        <v>0.1806453309616147</v>
+        <v>0.1957719397336037</v>
       </c>
       <c r="AY174" t="n">
-        <v>0.01742249375011059</v>
+        <v>-0.01549037380282464</v>
       </c>
       <c r="AZ174" t="n">
-        <v>0.1814835499066071</v>
+        <v>0.1963838182427692</v>
       </c>
       <c r="BA174" t="n">
-        <v>5.508901811834752</v>
+        <v>355.4759207214714</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>512</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>512</v>
+        <v>173</v>
       </c>
       <c r="C175" t="n">
         <v>512</v>
@@ -29033,36 +29033,36 @@
         <v>0.3565272928313855</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.643972564004856</v>
+        <v>0.6586680390004286</v>
       </c>
       <c r="AU175" t="n">
-        <v>-0.1153303869952393</v>
+        <v>-0.1279418399172445</v>
       </c>
       <c r="AV175" t="n">
-        <v>0.6542184355056498</v>
+        <v>0.6709789117417029</v>
       </c>
       <c r="AW175" t="n">
-        <v>349.8464215840042</v>
+        <v>349.0075655729675</v>
       </c>
       <c r="AX175" t="n">
-        <v>0.1350156226138552</v>
+        <v>0.1498067591987661</v>
       </c>
       <c r="AY175" t="n">
-        <v>0.05846392550351243</v>
+        <v>0.04555705611797797</v>
       </c>
       <c r="AZ175" t="n">
-        <v>0.1471300408994955</v>
+        <v>0.1565806835589042</v>
       </c>
       <c r="BA175" t="n">
-        <v>23.41338381331938</v>
+        <v>16.91480383170802</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>513</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>513</v>
+        <v>174</v>
       </c>
       <c r="C176" t="n">
         <v>513</v>
@@ -29196,36 +29196,36 @@
         <v>-0.194399135139651</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.259021078457695</v>
+        <v>1.273199270253707</v>
       </c>
       <c r="AU176" t="n">
-        <v>-0.3961510248968564</v>
+        <v>-0.4032042796586727</v>
       </c>
       <c r="AV176" t="n">
-        <v>1.319874884421855</v>
+        <v>1.33551865314927</v>
       </c>
       <c r="AW176" t="n">
-        <v>342.533816072314</v>
+        <v>342.4277387363726</v>
       </c>
       <c r="AX176" t="n">
-        <v>0.05954044164068209</v>
+        <v>0.07377668044193381</v>
       </c>
       <c r="AY176" t="n">
-        <v>0.2083126146764079</v>
+        <v>0.2684507749816777</v>
       </c>
       <c r="AZ176" t="n">
-        <v>0.2166545859752086</v>
+        <v>0.2784040537874665</v>
       </c>
       <c r="BA176" t="n">
-        <v>74.04886960939322</v>
+        <v>74.63313125396495</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>516</v>
+        <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>516</v>
+        <v>175</v>
       </c>
       <c r="C177" t="n">
         <v>516</v>
@@ -29359,36 +29359,36 @@
         <v>0.1061504073356708</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.987157094978232</v>
+        <v>2.000722891947675</v>
       </c>
       <c r="AU177" t="n">
-        <v>-1.055941211757971</v>
+        <v>-1.04993543841514</v>
       </c>
       <c r="AV177" t="n">
-        <v>2.250290017489128</v>
+        <v>2.259481470427111</v>
       </c>
       <c r="AW177" t="n">
-        <v>332.0145893368086</v>
+        <v>332.3104976110527</v>
       </c>
       <c r="AX177" t="n">
-        <v>-0.02981218067865365</v>
+        <v>-0.01623286739185367</v>
       </c>
       <c r="AY177" t="n">
-        <v>0.5603832294611927</v>
+        <v>0.7921412327705077</v>
       </c>
       <c r="AZ177" t="n">
-        <v>0.5611756676640323</v>
+        <v>0.7923075404405421</v>
       </c>
       <c r="BA177" t="n">
-        <v>93.04524357399129</v>
+        <v>91.17396316969982</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="C178" t="n">
         <v>517</v>
@@ -29522,36 +29522,36 @@
         <v>0.06484388935000243</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.510626321831752</v>
+        <v>1.524592902409689</v>
       </c>
       <c r="AU178" t="n">
-        <v>-0.3348396805685003</v>
+        <v>-0.3431064522704923</v>
       </c>
       <c r="AV178" t="n">
-        <v>1.547291018488165</v>
+        <v>1.562723761791457</v>
       </c>
       <c r="AW178" t="n">
-        <v>347.5021008724161</v>
+        <v>347.3170035516558</v>
       </c>
       <c r="AX178" t="n">
-        <v>0.02866490770926508</v>
+        <v>0.0426741478451684</v>
       </c>
       <c r="AY178" t="n">
-        <v>0.1755962707221899</v>
+        <v>0.2197865683621207</v>
       </c>
       <c r="AZ178" t="n">
-        <v>0.1779205643693873</v>
+        <v>0.2238910863047219</v>
       </c>
       <c r="BA178" t="n">
-        <v>80.72862857070595</v>
+        <v>79.01206630914379</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="C179" t="n">
         <v>518</v>
@@ -29685,36 +29685,36 @@
         <v>0.09195000000000009</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.957442775524061</v>
+        <v>0.9718746081074157</v>
       </c>
       <c r="AU179" t="n">
-        <v>0.02821600703592628</v>
+        <v>0.01276338364593951</v>
       </c>
       <c r="AV179" t="n">
-        <v>0.9578584506367676</v>
+        <v>0.9719584136402319</v>
       </c>
       <c r="AW179" t="n">
-        <v>1.688028136089477</v>
+        <v>0.7524077406196636</v>
       </c>
       <c r="AX179" t="n">
-        <v>0.0965483791555751</v>
+        <v>0.1110567023988914</v>
       </c>
       <c r="AY179" t="n">
-        <v>-0.018133859979056</v>
+        <v>-0.06837897733797414</v>
       </c>
       <c r="AZ179" t="n">
-        <v>0.09823658379294699</v>
+        <v>0.1304196138987657</v>
       </c>
       <c r="BA179" t="n">
-        <v>349.362551584538</v>
+        <v>328.3788819887261</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="C180" t="n">
         <v>519</v>
@@ -29848,36 +29848,36 @@
         <v>-0.5038485408097853</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.333612620957991</v>
+        <v>1.34772807794389</v>
       </c>
       <c r="AU180" t="n">
-        <v>-0.2048520316790401</v>
+        <v>-0.215691609697204</v>
       </c>
       <c r="AV180" t="n">
-        <v>1.349254230181056</v>
+        <v>1.364878691522475</v>
       </c>
       <c r="AW180" t="n">
-        <v>351.2672323897725</v>
+        <v>350.9074383910439</v>
       </c>
       <c r="AX180" t="n">
-        <v>0.05038700083563202</v>
+        <v>0.06455594302427428</v>
       </c>
       <c r="AY180" t="n">
-        <v>0.1062335666834067</v>
+        <v>0.116612418898536</v>
       </c>
       <c r="AZ180" t="n">
-        <v>0.117577296037491</v>
+        <v>0.1332888818361118</v>
       </c>
       <c r="BA180" t="n">
-        <v>64.62482952624332</v>
+        <v>61.03134660547942</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>525</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>525</v>
+        <v>179</v>
       </c>
       <c r="C181" t="n">
         <v>525</v>
@@ -30011,36 +30011,36 @@
         <v>0.09830564509837751</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.5475511524577951</v>
+        <v>0.5623277221558165</v>
       </c>
       <c r="AU181" t="n">
-        <v>0.01367518105207692</v>
+        <v>-0.001489640156293201</v>
       </c>
       <c r="AV181" t="n">
-        <v>0.5477218957962759</v>
+        <v>0.5623296952258029</v>
       </c>
       <c r="AW181" t="n">
-        <v>1.430674201812294</v>
+        <v>359.8482203687669</v>
       </c>
       <c r="AX181" t="n">
-        <v>0.1468478981420343</v>
+        <v>0.1617260262833956</v>
       </c>
       <c r="AY181" t="n">
-        <v>-0.01037473041702442</v>
+        <v>-0.0568375934742085</v>
       </c>
       <c r="AZ181" t="n">
-        <v>0.1472139267187694</v>
+        <v>0.1714229261486251</v>
       </c>
       <c r="BA181" t="n">
-        <v>355.9587966517645</v>
+        <v>340.6362960543694</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="C182" t="n">
         <v>526</v>
@@ -30174,36 +30174,36 @@
         <v>0.09013164106943948</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.131607864148625</v>
+        <v>1.145893216133818</v>
       </c>
       <c r="AU182" t="n">
-        <v>0.5558064022519665</v>
+        <v>0.5299113413476452</v>
       </c>
       <c r="AV182" t="n">
-        <v>1.260736735003501</v>
+        <v>1.262488531619343</v>
       </c>
       <c r="AW182" t="n">
-        <v>26.15866440028724</v>
+        <v>24.8178939423055</v>
       </c>
       <c r="AX182" t="n">
-        <v>0.07517585117728719</v>
+        <v>0.08952704239053177</v>
       </c>
       <c r="AY182" t="n">
-        <v>-0.2996613493191769</v>
+        <v>-0.4871394577114683</v>
       </c>
       <c r="AZ182" t="n">
-        <v>0.3089471360540819</v>
+        <v>0.4952978321965679</v>
       </c>
       <c r="BA182" t="n">
-        <v>284.0831145360753</v>
+        <v>280.4136786595647</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>527</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>527</v>
+        <v>181</v>
       </c>
       <c r="C183" t="n">
         <v>527</v>
@@ -30337,36 +30337,36 @@
         <v>0.3120750374423339</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.347228134102336</v>
+        <v>1.361332139835143</v>
       </c>
       <c r="AU183" t="n">
-        <v>-0.680616320696187</v>
+        <v>-0.6820392396836668</v>
       </c>
       <c r="AV183" t="n">
-        <v>1.509391341340899</v>
+        <v>1.522630197853834</v>
       </c>
       <c r="AW183" t="n">
-        <v>333.1972074008648</v>
+        <v>333.3887322788727</v>
       </c>
       <c r="AX183" t="n">
-        <v>0.04871618415294113</v>
+        <v>0.06287284240317911</v>
       </c>
       <c r="AY183" t="n">
-        <v>0.3601061296019153</v>
+        <v>0.4942373416035678</v>
       </c>
       <c r="AZ183" t="n">
-        <v>0.3633864212863419</v>
+        <v>0.4982203770895133</v>
       </c>
       <c r="BA183" t="n">
-        <v>82.29563668630031</v>
+        <v>82.75023829957193</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>535</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>535</v>
+        <v>182</v>
       </c>
       <c r="C184" t="n">
         <v>535</v>
@@ -30500,36 +30500,36 @@
         <v>-0.1447438711041751</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.4534985103597911</v>
+        <v>0.4683541825196317</v>
       </c>
       <c r="AU184" t="n">
-        <v>-0.4030005214670586</v>
+        <v>-0.4099182062098078</v>
       </c>
       <c r="AV184" t="n">
-        <v>0.6066879916409016</v>
+        <v>0.6224054756072597</v>
       </c>
       <c r="AW184" t="n">
-        <v>318.3741732291499</v>
+        <v>318.8065721886301</v>
       </c>
       <c r="AX184" t="n">
-        <v>0.1583894920432358</v>
+        <v>0.1733524746333456</v>
       </c>
       <c r="AY184" t="n">
-        <v>0.2119675742627422</v>
+        <v>0.2738873759889419</v>
       </c>
       <c r="AZ184" t="n">
-        <v>0.2646081701847949</v>
+        <v>0.3241378953279186</v>
       </c>
       <c r="BA184" t="n">
-        <v>53.2316446562565</v>
+        <v>57.66891299621152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>539</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>539</v>
+        <v>183</v>
       </c>
       <c r="C185" t="n">
         <v>539</v>
@@ -30663,36 +30663,36 @@
         <v>0.05758821664770528</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.389909996462035</v>
+        <v>1.403978104847225</v>
       </c>
       <c r="AU185" t="n">
-        <v>-0.3042641998008287</v>
+        <v>-0.313136142768792</v>
       </c>
       <c r="AV185" t="n">
-        <v>1.422823425989864</v>
+        <v>1.438474456776527</v>
       </c>
       <c r="AW185" t="n">
-        <v>347.6522035677151</v>
+        <v>347.4268270959511</v>
       </c>
       <c r="AX185" t="n">
-        <v>0.04347851393641167</v>
+        <v>0.05759666454006684</v>
       </c>
       <c r="AY185" t="n">
-        <v>0.1592808896729103</v>
+        <v>0.1955181147852171</v>
       </c>
       <c r="AZ185" t="n">
-        <v>0.1651083976940984</v>
+        <v>0.2038251921998513</v>
       </c>
       <c r="BA185" t="n">
-        <v>74.73206838981966</v>
+        <v>73.58582798682454</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>543</v>
+        <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>543</v>
+        <v>184</v>
       </c>
       <c r="C186" t="n">
         <v>543</v>
@@ -30826,36 +30826,36 @@
         <v>0.008374839067496953</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.6956263827870658</v>
+        <v>0.7102784146199914</v>
       </c>
       <c r="AU186" t="n">
-        <v>0.5765175874208107</v>
+        <v>0.55021259627717</v>
       </c>
       <c r="AV186" t="n">
-        <v>0.9034758397627075</v>
+        <v>0.8984594188816502</v>
       </c>
       <c r="AW186" t="n">
-        <v>39.65108190839948</v>
+        <v>37.76292284834196</v>
       </c>
       <c r="AX186" t="n">
-        <v>0.1286769660218447</v>
+        <v>0.1434215004462979</v>
       </c>
       <c r="AY186" t="n">
-        <v>-0.3107130439950351</v>
+        <v>-0.5035783958139296</v>
       </c>
       <c r="AZ186" t="n">
-        <v>0.3363039656222442</v>
+        <v>0.5236037886807143</v>
       </c>
       <c r="BA186" t="n">
-        <v>292.4961293957091</v>
+        <v>285.8972028338445</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>544</v>
+        <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>544</v>
+        <v>185</v>
       </c>
       <c r="C187" t="n">
         <v>544</v>
@@ -30989,36 +30989,36 @@
         <v>-0.0624877270396581</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.308294740314857</v>
+        <v>1.322431490766226</v>
       </c>
       <c r="AU187" t="n">
-        <v>0.3714766570715565</v>
+        <v>0.3492299791998554</v>
       </c>
       <c r="AV187" t="n">
-        <v>1.360011041971563</v>
+        <v>1.367767021879865</v>
       </c>
       <c r="AW187" t="n">
-        <v>15.85134286530599</v>
+        <v>14.79305452741214</v>
       </c>
       <c r="AX187" t="n">
-        <v>0.05349386408055462</v>
+        <v>0.06768564810285019</v>
       </c>
       <c r="AY187" t="n">
-        <v>-0.2013011614880559</v>
+        <v>-0.3408327520951461</v>
       </c>
       <c r="AZ187" t="n">
-        <v>0.2082876643267892</v>
+        <v>0.3474885780279032</v>
       </c>
       <c r="BA187" t="n">
-        <v>284.8818614195471</v>
+        <v>281.2321785293925</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="C188" t="n">
         <v>545</v>
@@ -31152,36 +31152,36 @@
         <v>-0.03072369632667178</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.8134693346983047</v>
+        <v>0.8280222553590582</v>
       </c>
       <c r="AU188" t="n">
-        <v>-0.7595917513464998</v>
+        <v>-0.7594515334626271</v>
       </c>
       <c r="AV188" t="n">
-        <v>1.112974387489733</v>
+        <v>1.123560183990443</v>
       </c>
       <c r="AW188" t="n">
-        <v>316.9616224296249</v>
+        <v>317.4733461848848</v>
       </c>
       <c r="AX188" t="n">
-        <v>0.1142159634945461</v>
+        <v>0.1288541798135186</v>
       </c>
       <c r="AY188" t="n">
-        <v>0.4022482059401948</v>
+        <v>0.556921934758995</v>
       </c>
       <c r="AZ188" t="n">
-        <v>0.4181493817992475</v>
+        <v>0.571634009722232</v>
       </c>
       <c r="BA188" t="n">
-        <v>74.148422844202</v>
+        <v>76.97278921791357</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>546</v>
+        <v>187</v>
       </c>
       <c r="C189" t="n">
         <v>546</v>
@@ -31315,36 +31315,36 @@
         <v>-0.03355431993543239</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.023442331033624</v>
+        <v>1.037818655050677</v>
       </c>
       <c r="AU189" t="n">
-        <v>-1.013797954991893</v>
+        <v>-1.00862631041528</v>
       </c>
       <c r="AV189" t="n">
-        <v>1.440562563201363</v>
+        <v>1.447202333757494</v>
       </c>
       <c r="AW189" t="n">
-        <v>315.2712384587514</v>
+        <v>315.8172634655775</v>
       </c>
       <c r="AX189" t="n">
-        <v>0.08844929708452126</v>
+        <v>0.1028980754200553</v>
       </c>
       <c r="AY189" t="n">
-        <v>0.5378951679317332</v>
+        <v>0.7586911726331543</v>
       </c>
       <c r="AZ189" t="n">
-        <v>0.5451187850726238</v>
+        <v>0.765637191727663</v>
       </c>
       <c r="BA189" t="n">
-        <v>80.6620795127622</v>
+        <v>82.27634284914093</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>557</v>
+        <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>557</v>
+        <v>188</v>
       </c>
       <c r="C190" t="n">
         <v>557</v>
@@ -31478,36 +31478,36 @@
         <v>-0.008039819281182354</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.121953217917908</v>
+        <v>2.135405645343121</v>
       </c>
       <c r="AU190" t="n">
-        <v>0.06952678956071788</v>
+        <v>0.05325651431600628</v>
       </c>
       <c r="AV190" t="n">
-        <v>2.123091951258538</v>
+        <v>2.13606964457631</v>
       </c>
       <c r="AW190" t="n">
-        <v>1.876651627497716</v>
+        <v>1.428647105700887</v>
       </c>
       <c r="AX190" t="n">
-        <v>-0.046353577876247</v>
+        <v>-0.03289587787377729</v>
       </c>
       <c r="AY190" t="n">
-        <v>-0.04017770496246963</v>
+        <v>-0.1011682837611945</v>
       </c>
       <c r="AZ190" t="n">
-        <v>0.06134249879146228</v>
+        <v>0.1063821433337007</v>
       </c>
       <c r="BA190" t="n">
-        <v>220.9176329890738</v>
+        <v>251.9875479049419</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>560</v>
+        <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>560</v>
+        <v>189</v>
       </c>
       <c r="C191" t="n">
         <v>560</v>
@@ -31641,36 +31641,36 @@
         <v>0.3199554761925328</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.278891820426028</v>
+        <v>1.293053300042852</v>
       </c>
       <c r="AU191" t="n">
-        <v>0.03961934967959484</v>
+        <v>0.02394102336914021</v>
       </c>
       <c r="AV191" t="n">
-        <v>1.279505365843236</v>
+        <v>1.293274916385403</v>
       </c>
       <c r="AW191" t="n">
-        <v>1.774423533015418</v>
+        <v>1.060716431716178</v>
       </c>
       <c r="AX191" t="n">
-        <v>0.05710201961235575</v>
+        <v>0.07132033099744631</v>
       </c>
       <c r="AY191" t="n">
-        <v>-0.02421879718349953</v>
+        <v>-0.07743006940982809</v>
       </c>
       <c r="AZ191" t="n">
-        <v>0.06202572676579732</v>
+        <v>0.105271103643859</v>
       </c>
       <c r="BA191" t="n">
-        <v>337.0166423331401</v>
+        <v>312.6479689124536</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="C192" t="n">
         <v>562</v>
@@ -31804,36 +31804,36 @@
         <v>-0.1993638795787995</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.113220348996654</v>
+        <v>1.127521165701209</v>
       </c>
       <c r="AU192" t="n">
-        <v>0.4204876135284241</v>
+        <v>0.3972708765825637</v>
       </c>
       <c r="AV192" t="n">
-        <v>1.18998713377543</v>
+        <v>1.195461470932833</v>
       </c>
       <c r="AW192" t="n">
-        <v>20.69264483521992</v>
+        <v>19.40940273043809</v>
       </c>
       <c r="AX192" t="n">
-        <v>0.07743226022654172</v>
+        <v>0.09180004068626861</v>
       </c>
       <c r="AY192" t="n">
-        <v>-0.2274538959702859</v>
+        <v>-0.3797338614700392</v>
       </c>
       <c r="AZ192" t="n">
-        <v>0.2402728235066391</v>
+        <v>0.3906725649657876</v>
       </c>
       <c r="BA192" t="n">
-        <v>288.8001440150992</v>
+        <v>283.5904138757533</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="C193" t="n">
         <v>563</v>
@@ -31967,36 +31967,36 @@
         <v>0.04062098722271917</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.9473370339686825</v>
+        <v>0.9617773659308714</v>
       </c>
       <c r="AU193" t="n">
-        <v>-1.06457333531599</v>
+        <v>-1.058396708955955</v>
       </c>
       <c r="AV193" t="n">
-        <v>1.425048715726726</v>
+        <v>1.43011163730169</v>
       </c>
       <c r="AW193" t="n">
-        <v>311.6650810683679</v>
+        <v>312.2617877733545</v>
       </c>
       <c r="AX193" t="n">
-        <v>0.09778849705658141</v>
+        <v>0.1123059377165885</v>
       </c>
       <c r="AY193" t="n">
-        <v>0.5649894165620167</v>
+        <v>0.7989927453085992</v>
       </c>
       <c r="AZ193" t="n">
-        <v>0.5733895979032695</v>
+        <v>0.8068469685771734</v>
       </c>
       <c r="BA193" t="n">
-        <v>80.18051550855202</v>
+        <v>81.99895711549327</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>564</v>
+        <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>564</v>
+        <v>192</v>
       </c>
       <c r="C194" t="n">
         <v>564</v>
@@ -32130,36 +32130,36 @@
         <v>0.01033629331118729</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.7825046664352628</v>
+        <v>0.7970836297614255</v>
       </c>
       <c r="AU194" t="n">
-        <v>0.3510538005385733</v>
+        <v>0.3292113461044929</v>
       </c>
       <c r="AV194" t="n">
-        <v>0.8576434713011802</v>
+        <v>0.8623934271767042</v>
       </c>
       <c r="AW194" t="n">
-        <v>24.16235788804489</v>
+        <v>22.44159593283054</v>
       </c>
       <c r="AX194" t="n">
-        <v>0.118015767714879</v>
+        <v>0.1326819204086043</v>
       </c>
       <c r="AY194" t="n">
-        <v>-0.1904033218438564</v>
+        <v>-0.3246226669800655</v>
       </c>
       <c r="AZ194" t="n">
-        <v>0.2240114872021242</v>
+        <v>0.3506912715203584</v>
       </c>
       <c r="BA194" t="n">
-        <v>301.7914584329351</v>
+        <v>292.2311406866514</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>565</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>565</v>
+        <v>193</v>
       </c>
       <c r="C195" t="n">
         <v>565</v>
@@ -32293,36 +32293,36 @@
         <v>0.2774609396869493</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.645773425470812</v>
+        <v>1.659626341314116</v>
       </c>
       <c r="AU195" t="n">
-        <v>-1.07705424150767</v>
+        <v>-1.07063058433697</v>
       </c>
       <c r="AV195" t="n">
-        <v>1.966879764280367</v>
+        <v>1.974996060983768</v>
       </c>
       <c r="AW195" t="n">
-        <v>326.7977991784459</v>
+        <v>327.1738005803679</v>
       </c>
       <c r="AX195" t="n">
-        <v>0.01208044019903526</v>
+        <v>0.02596775039524268</v>
       </c>
       <c r="AY195" t="n">
-        <v>0.5716493524075021</v>
+        <v>0.8088991240442927</v>
       </c>
       <c r="AZ195" t="n">
-        <v>0.5717769837474389</v>
+        <v>0.8093158326266784</v>
       </c>
       <c r="BA195" t="n">
-        <v>88.78937109530993</v>
+        <v>88.16128901463485</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>566</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>566</v>
+        <v>194</v>
       </c>
       <c r="C196" t="n">
         <v>566</v>
@@ -32456,36 +32456,36 @@
         <v>0.005454167270682632</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.716512809487503</v>
+        <v>1.730306230357583</v>
       </c>
       <c r="AU196" t="n">
-        <v>0.7594644285478703</v>
+        <v>0.7295384257743042</v>
       </c>
       <c r="AV196" t="n">
-        <v>1.877019563926872</v>
+        <v>1.877814145621318</v>
       </c>
       <c r="AW196" t="n">
-        <v>23.86680830060881</v>
+        <v>22.86144983048391</v>
       </c>
       <c r="AX196" t="n">
-        <v>0.003399713906507978</v>
+        <v>0.01722320291384027</v>
       </c>
       <c r="AY196" t="n">
-        <v>-0.4083353004504748</v>
+        <v>-0.6487874590718189</v>
       </c>
       <c r="AZ196" t="n">
-        <v>0.4083494528570176</v>
+        <v>0.649016028898731</v>
       </c>
       <c r="BA196" t="n">
-        <v>270.477021598466</v>
+        <v>271.5206599751493</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>568</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>568</v>
+        <v>195</v>
       </c>
       <c r="C197" t="n">
         <v>568</v>
@@ -32619,36 +32619,36 @@
         <v>0.2322797610823256</v>
       </c>
       <c r="AT197" t="n">
-        <v>2.591696640999507</v>
+        <v>2.604753993279989</v>
       </c>
       <c r="AU197" t="n">
-        <v>-0.8889009099474637</v>
+        <v>-0.8862013149009934</v>
       </c>
       <c r="AV197" t="n">
-        <v>2.739897134323396</v>
+        <v>2.751380769003138</v>
       </c>
       <c r="AW197" t="n">
-        <v>341.0690413066745</v>
+        <v>341.2104337915374</v>
       </c>
       <c r="AX197" t="n">
-        <v>-0.1039977620908569</v>
+        <v>-0.09096386537907286</v>
       </c>
       <c r="AY197" t="n">
-        <v>0.4712488608037201</v>
+        <v>0.6595575510693689</v>
       </c>
       <c r="AZ197" t="n">
-        <v>0.4825878400133083</v>
+        <v>0.6658007119080943</v>
       </c>
       <c r="BA197" t="n">
-        <v>102.4448728890372</v>
+        <v>97.85249577537836</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>569</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>569</v>
+        <v>196</v>
       </c>
       <c r="C198" t="n">
         <v>569</v>
@@ -32782,36 +32782,36 @@
         <v>-0.1289061635914855</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.848488886726537</v>
+        <v>2.861330265288897</v>
       </c>
       <c r="AU198" t="n">
-        <v>0.09530050177317258</v>
+        <v>0.07852009521877178</v>
       </c>
       <c r="AV198" t="n">
-        <v>2.850082652037096</v>
+        <v>2.86240742949207</v>
       </c>
       <c r="AW198" t="n">
-        <v>1.916202171651817</v>
+        <v>1.571905673167597</v>
       </c>
       <c r="AX198" t="n">
-        <v>-0.1355098148205465</v>
+        <v>-0.1227075964961846</v>
       </c>
       <c r="AY198" t="n">
-        <v>-0.05393081448823338</v>
+        <v>-0.1216254645684307</v>
       </c>
       <c r="AZ198" t="n">
-        <v>0.1458473265578188</v>
+        <v>0.1727712588058472</v>
       </c>
       <c r="BA198" t="n">
-        <v>201.7017920695092</v>
+        <v>224.7462431540084</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="C199" t="n">
         <v>572</v>
@@ -32945,36 +32945,36 @@
         <v>0.3974542824657962</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.741662214402364</v>
+        <v>1.755434483502567</v>
       </c>
       <c r="AU199" t="n">
-        <v>-0.2213663139525819</v>
+        <v>-0.2318790297641945</v>
       </c>
       <c r="AV199" t="n">
-        <v>1.755673749313892</v>
+        <v>1.770682950252333</v>
       </c>
       <c r="AW199" t="n">
-        <v>352.7565105096156</v>
+        <v>352.4752430884872</v>
       </c>
       <c r="AX199" t="n">
-        <v>0.0003135250243099796</v>
+        <v>0.01411432419706876</v>
       </c>
       <c r="AY199" t="n">
-        <v>0.115045752175943</v>
+        <v>0.1297201798445252</v>
       </c>
       <c r="AZ199" t="n">
-        <v>0.115046179387537</v>
+        <v>0.1304857816255699</v>
       </c>
       <c r="BA199" t="n">
-        <v>89.84385676259973</v>
+        <v>83.79030776411597</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>580</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>580</v>
+        <v>198</v>
       </c>
       <c r="C200" t="n">
         <v>580</v>
@@ -33108,36 +33108,36 @@
         <v>0.08702438052086982</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.9904770664849817</v>
+        <v>1.004881115758042</v>
       </c>
       <c r="AU200" t="n">
-        <v>0.5118967922837301</v>
+        <v>0.4868708210416349</v>
       </c>
       <c r="AV200" t="n">
-        <v>1.114936386159797</v>
+        <v>1.116615087301297</v>
       </c>
       <c r="AW200" t="n">
-        <v>27.3307536955446</v>
+        <v>25.85046161946012</v>
       </c>
       <c r="AX200" t="n">
-        <v>0.0924946028598726</v>
+        <v>0.1069731225114263</v>
       </c>
       <c r="AY200" t="n">
-        <v>-0.2762307441293315</v>
+        <v>-0.452287402916608</v>
       </c>
       <c r="AZ200" t="n">
-        <v>0.2913051245008397</v>
+        <v>0.4647656869616072</v>
       </c>
       <c r="BA200" t="n">
-        <v>288.512886606475</v>
+        <v>283.3068277508919</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>581</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>581</v>
+        <v>199</v>
       </c>
       <c r="C201" t="n">
         <v>581</v>
@@ -33271,36 +33271,36 @@
         <v>-0.08891981002308193</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.9211217798065167</v>
+        <v>0.9355841599652812</v>
       </c>
       <c r="AU201" t="n">
-        <v>-0.3965873696428747</v>
+        <v>-0.4036319879647816</v>
       </c>
       <c r="AV201" t="n">
-        <v>1.002869320995602</v>
+        <v>1.018938909889274</v>
       </c>
       <c r="AW201" t="n">
-        <v>336.7057899005272</v>
+        <v>336.6635493750144</v>
       </c>
       <c r="AX201" t="n">
-        <v>0.1010054807670573</v>
+        <v>0.1155465728725859</v>
       </c>
       <c r="AY201" t="n">
-        <v>0.2085454525785895</v>
+        <v>0.2687971117177287</v>
       </c>
       <c r="AZ201" t="n">
-        <v>0.231718175670777</v>
+        <v>0.2925797289122966</v>
       </c>
       <c r="BA201" t="n">
-        <v>64.15755356918994</v>
+        <v>66.73880499705086</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>592</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>592</v>
+        <v>200</v>
       </c>
       <c r="C202" t="n">
         <v>592</v>
@@ -33434,36 +33434,36 @@
         <v>0.1153691644076494</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.05936450023519</v>
+        <v>1.0737106121077</v>
       </c>
       <c r="AU202" t="n">
-        <v>0.5556253808705816</v>
+        <v>0.5297339028678463</v>
       </c>
       <c r="AV202" t="n">
-        <v>1.196232714912167</v>
+        <v>1.197277113453812</v>
       </c>
       <c r="AW202" t="n">
-        <v>27.67653097715658</v>
+        <v>26.26023320583133</v>
       </c>
       <c r="AX202" t="n">
-        <v>0.08404113714635914</v>
+        <v>0.09845750644162106</v>
       </c>
       <c r="AY202" t="n">
-        <v>-0.2995647545072161</v>
+        <v>-0.4869957769293426</v>
       </c>
       <c r="AZ202" t="n">
-        <v>0.3111301253106517</v>
+        <v>0.496848837496593</v>
       </c>
       <c r="BA202" t="n">
-        <v>285.6711528519867</v>
+        <v>281.4296097644451</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>593</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>593</v>
+        <v>201</v>
       </c>
       <c r="C203" t="n">
         <v>593</v>
@@ -33597,36 +33597,36 @@
         <v>-0.4297921142749533</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.256693222515172</v>
+        <v>1.270873372141732</v>
       </c>
       <c r="AU203" t="n">
-        <v>0.734909781680414</v>
+        <v>0.7054697816239651</v>
       </c>
       <c r="AV203" t="n">
-        <v>1.455805702257386</v>
+        <v>1.453549703588929</v>
       </c>
       <c r="AW203" t="n">
-        <v>30.31894595280601</v>
+        <v>29.03492959736169</v>
       </c>
       <c r="AX203" t="n">
-        <v>0.0598261025997979</v>
+        <v>0.07406444159651845</v>
       </c>
       <c r="AY203" t="n">
-        <v>-0.3952326963338901</v>
+        <v>-0.6292978781187635</v>
       </c>
       <c r="AZ203" t="n">
-        <v>0.3997349707038885</v>
+        <v>0.6336413503818877</v>
       </c>
       <c r="BA203" t="n">
-        <v>278.6074797220633</v>
+        <v>276.7124767771954</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>598</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>598</v>
+        <v>202</v>
       </c>
       <c r="C204" t="n">
         <v>598</v>
@@ -33760,36 +33760,36 @@
         <v>0.2110943578042042</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.5460418036891452</v>
+        <v>0.5608196428167189</v>
       </c>
       <c r="AU204" t="n">
-        <v>-0.4060977526168829</v>
+        <v>-0.4129541347979427</v>
       </c>
       <c r="AV204" t="n">
-        <v>0.6804976385385757</v>
+        <v>0.6964551595155208</v>
       </c>
       <c r="AW204" t="n">
-        <v>323.3613817241287</v>
+        <v>323.634284773671</v>
       </c>
       <c r="AX204" t="n">
-        <v>0.1470331166553525</v>
+        <v>0.161912606533661</v>
       </c>
       <c r="AY204" t="n">
-        <v>0.2136202876506707</v>
+        <v>0.2763457187030792</v>
       </c>
       <c r="AZ204" t="n">
-        <v>0.2593306088554565</v>
+        <v>0.3202852609784682</v>
       </c>
       <c r="BA204" t="n">
-        <v>55.4606778648759</v>
+        <v>59.63370783582472</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>599</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>599</v>
+        <v>203</v>
       </c>
       <c r="C205" t="n">
         <v>599</v>
@@ -33923,36 +33923,36 @@
         <v>-0.3023227623145806</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.8452711487294114</v>
+        <v>0.8597973226478717</v>
       </c>
       <c r="AU205" t="n">
-        <v>0.7997465590609631</v>
+        <v>0.7690232642315874</v>
       </c>
       <c r="AV205" t="n">
-        <v>1.163648518069004</v>
+        <v>1.153537262927321</v>
       </c>
       <c r="AW205" t="n">
-        <v>43.41478832604768</v>
+        <v>41.81020975847851</v>
       </c>
       <c r="AX205" t="n">
-        <v>0.110313429608405</v>
+        <v>0.1249229542783327</v>
       </c>
       <c r="AY205" t="n">
-        <v>-0.4298302464757494</v>
+        <v>-0.6807603010285477</v>
       </c>
       <c r="AZ205" t="n">
-        <v>0.4437601757000869</v>
+        <v>0.692127395760423</v>
       </c>
       <c r="BA205" t="n">
-        <v>284.3939697002074</v>
+        <v>280.3983763291738</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>603</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>603</v>
+        <v>204</v>
       </c>
       <c r="C206" t="n">
         <v>603</v>
@@ -34086,36 +34086,36 @@
         <v>0.09462836709488391</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.759298038675498</v>
+        <v>1.773055475261854</v>
       </c>
       <c r="AU206" t="n">
-        <v>-0.2238841910106077</v>
+        <v>-0.2343470712412742</v>
       </c>
       <c r="AV206" t="n">
-        <v>1.77348631792634</v>
+        <v>1.788475403284988</v>
       </c>
       <c r="AW206" t="n">
-        <v>352.7476536574065</v>
+        <v>352.4707824405322</v>
       </c>
       <c r="AX206" t="n">
-        <v>-0.001850640886748273</v>
+        <v>0.01193424721627828</v>
       </c>
       <c r="AY206" t="n">
-        <v>0.1163893164505026</v>
+        <v>0.1317186760565507</v>
       </c>
       <c r="AZ206" t="n">
-        <v>0.1164040285192353</v>
+        <v>0.1322582166774895</v>
       </c>
       <c r="BA206" t="n">
-        <v>90.91095111498038</v>
+        <v>84.82290513093854</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>604</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>604</v>
+        <v>205</v>
       </c>
       <c r="C207" t="n">
         <v>604</v>
@@ -34249,28 +34249,28 @@
         <v>0.1497973744089659</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.7601501214591962</v>
+        <v>0.7747478859535241</v>
       </c>
       <c r="AU207" t="n">
-        <v>-0.4553672673887455</v>
+        <v>-0.4612484729289263</v>
       </c>
       <c r="AV207" t="n">
-        <v>0.8861080946270179</v>
+        <v>0.9016564981015338</v>
       </c>
       <c r="AW207" t="n">
-        <v>329.0763197985095</v>
+        <v>329.232419800586</v>
       </c>
       <c r="AX207" t="n">
-        <v>0.1207589876202918</v>
+        <v>0.1354453086213463</v>
       </c>
       <c r="AY207" t="n">
-        <v>0.2399109914248526</v>
+        <v>0.3154520516854786</v>
       </c>
       <c r="AZ207" t="n">
-        <v>0.2685889366625764</v>
+        <v>0.3433007843569683</v>
       </c>
       <c r="BA207" t="n">
-        <v>63.28164198307262</v>
+        <v>66.76281773090001</v>
       </c>
     </row>
   </sheetData>
